--- a/Analysis60.xlsx
+++ b/Analysis60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="104">
   <si>
     <t>Research Activity</t>
   </si>
@@ -26,307 +26,304 @@
     <t>Percentage Distribution</t>
   </si>
   <si>
-    <t>delivering presents</t>
+    <t>writing hawkish memos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>2.00%</t>
+  </si>
+  <si>
+    <t>wielding political power</t>
+  </si>
+  <si>
+    <t>0.50%</t>
+  </si>
+  <si>
+    <t>tracking down fugitives</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>1.00%</t>
+  </si>
+  <si>
+    <t>promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
     <t>1.33%</t>
   </si>
   <si>
-    <t>maintaining a secret identity</t>
+    <t>promoting nerd culture</t>
+  </si>
+  <si>
+    <t>leading armies into battle</t>
+  </si>
+  <si>
+    <t>2.17%</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>0.33%</t>
+  </si>
+  <si>
+    <t>promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>2.50%</t>
+  </si>
+  <si>
+    <t>singing to teenagers</t>
+  </si>
+  <si>
+    <t>1.50%</t>
+  </si>
+  <si>
+    <t>singing melancholy songs</t>
+  </si>
+  <si>
+    <t>0.83%</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>campaigning for social causes</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>0.67%</t>
+  </si>
+  <si>
+    <t>interviewing politicians</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>playing rock music</t>
+  </si>
+  <si>
+    <t>1.17%</t>
+  </si>
+  <si>
+    <t>making lewd remarks</t>
+  </si>
+  <si>
+    <t>escaping from handcuffs</t>
+  </si>
+  <si>
+    <t>interpreting evidence</t>
+  </si>
+  <si>
+    <t>0.17%</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>cheating clients</t>
+  </si>
+  <si>
+    <t>following the money</t>
+  </si>
+  <si>
+    <t>writing cook books</t>
+  </si>
+  <si>
+    <t>running a large metropolitan city</t>
+  </si>
+  <si>
+    <t>1.83%</t>
+  </si>
+  <si>
+    <t>writing mystery stories</t>
+  </si>
+  <si>
+    <t>promoting Catholic values</t>
+  </si>
+  <si>
+    <t>campaigning for environmental causes</t>
+  </si>
+  <si>
+    <t>incurring debts</t>
+  </si>
+  <si>
+    <t>gyrating hips</t>
+  </si>
+  <si>
+    <t>monetizing celebrity status</t>
+  </si>
+  <si>
+    <t>bullying schoolkids</t>
+  </si>
+  <si>
+    <t>hosting anodyne game shows</t>
+  </si>
+  <si>
+    <t>singing jazz songs</t>
+  </si>
+  <si>
+    <t>making unauthorized sex tapes</t>
+  </si>
+  <si>
+    <t>womanizing</t>
   </si>
   <si>
     <t>1.67%</t>
   </si>
   <si>
-    <t>delivering forehand slams</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>0.33%</t>
-  </si>
-  <si>
-    <t>interviewing celebrities</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>tracking down criminals</t>
-  </si>
-  <si>
-    <t>0.83%</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>1.17%</t>
-  </si>
-  <si>
-    <t>fighting for democracy</t>
+    <t>investing money</t>
+  </si>
+  <si>
+    <t>promoting capitalism</t>
+  </si>
+  <si>
+    <t>fawning on the boss</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>playing basketball</t>
+  </si>
+  <si>
+    <t>hunting monsters</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>carving magnificent statues</t>
+  </si>
+  <si>
+    <t>studying gorillas up close</t>
+  </si>
+  <si>
+    <t>riding a bicycle</t>
+  </si>
+  <si>
+    <t>evading mercenaries</t>
+  </si>
+  <si>
+    <t>convicting criminals</t>
+  </si>
+  <si>
+    <t>doing raunchy stage acts</t>
+  </si>
+  <si>
+    <t>causing mayhem</t>
+  </si>
+  <si>
+    <t>making cartoons</t>
+  </si>
+  <si>
+    <t>writing short stories</t>
+  </si>
+  <si>
+    <t>cooking dinners</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>testing new technologies</t>
+  </si>
+  <si>
+    <t>undermining authority</t>
+  </si>
+  <si>
+    <t>studying magic</t>
+  </si>
+  <si>
+    <t>running a bureaucracy</t>
   </si>
   <si>
     <t>2.33%</t>
   </si>
   <si>
-    <t>arguing against capitalism</t>
-  </si>
-  <si>
-    <t>avoiding growing old</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>0.50%</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>1.00%</t>
-  </si>
-  <si>
-    <t>running a kingdom</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>cooking chrystal meth</t>
-  </si>
-  <si>
-    <t>drawing political cartoons</t>
-  </si>
-  <si>
-    <t>betraying friends</t>
-  </si>
-  <si>
-    <t>popping amphetamines</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
+    <t>having meltdowns in public</t>
+  </si>
+  <si>
+    <t>performing kung-fu moves</t>
+  </si>
+  <si>
+    <t>postulating bizarre theories</t>
+  </si>
+  <si>
+    <t>flipping hamburgers</t>
+  </si>
+  <si>
+    <t>studying science</t>
+  </si>
+  <si>
+    <t>suppressing violent urges</t>
+  </si>
+  <si>
+    <t>winning swimming competitions</t>
+  </si>
+  <si>
+    <t>smuggling contraband</t>
+  </si>
+  <si>
+    <t>warning about totalitarianism</t>
+  </si>
+  <si>
+    <t>eluding hunters</t>
+  </si>
+  <si>
+    <t>nursing a messiah complex</t>
+  </si>
+  <si>
+    <t>winning tennis tournaments</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>instigating rebellion</t>
+  </si>
+  <si>
+    <t>biting opponents</t>
+  </si>
+  <si>
+    <t>singing country music</t>
   </si>
   <si>
     <t>phoning home</t>
   </si>
   <si>
-    <t>expressing violent urges</t>
-  </si>
-  <si>
-    <t>exorcising demons</t>
-  </si>
-  <si>
-    <t>1.50%</t>
-  </si>
-  <si>
-    <t>reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>spying for the enemy</t>
-  </si>
-  <si>
-    <t>saving money</t>
-  </si>
-  <si>
-    <t>hiding from the public</t>
-  </si>
-  <si>
-    <t>1.83%</t>
-  </si>
-  <si>
-    <t>fencing stolen goods</t>
-  </si>
-  <si>
-    <t>teaching the next generation</t>
-  </si>
-  <si>
-    <t>2.00%</t>
-  </si>
-  <si>
-    <t>fighting Carthaginians</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>0.17%</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>cooking British food</t>
-  </si>
-  <si>
-    <t>2.17%</t>
-  </si>
-  <si>
-    <t>making unauthorized sex tapes</t>
-  </si>
-  <si>
-    <t>fighting in gladiator arenas</t>
-  </si>
-  <si>
-    <t>opening new markets</t>
-  </si>
-  <si>
-    <t>0.67%</t>
-  </si>
-  <si>
-    <t>painting abstract paintings</t>
-  </si>
-  <si>
-    <t>singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>building empires</t>
-  </si>
-  <si>
-    <t>making vulgar jokes</t>
-  </si>
-  <si>
-    <t>deflating political egos</t>
-  </si>
-  <si>
-    <t>running a multinational corporation</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>eluding authorities</t>
-  </si>
-  <si>
-    <t>issuing fatwas</t>
-  </si>
-  <si>
-    <t>writing blues songs</t>
-  </si>
-  <si>
-    <t>making lewd remarks</t>
-  </si>
-  <si>
-    <t>inventing time machines</t>
-  </si>
-  <si>
-    <t>reading the news</t>
-  </si>
-  <si>
-    <t>selling illegal alcohol</t>
-  </si>
-  <si>
-    <t>offering advice</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise</t>
-  </si>
-  <si>
-    <t>producing Hollywood movies</t>
-  </si>
-  <si>
-    <t>decrying secrecy</t>
-  </si>
-  <si>
-    <t>promoting Heliocentrism</t>
-  </si>
-  <si>
-    <t>designing clothes</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>trimming bushes</t>
-  </si>
-  <si>
-    <t>making Italian movies</t>
-  </si>
-  <si>
-    <t>developing cunning plans</t>
-  </si>
-  <si>
-    <t>painting colorful pictures</t>
-  </si>
-  <si>
-    <t>studying the cosmos</t>
-  </si>
-  <si>
-    <t>selling dodgy goods</t>
-  </si>
-  <si>
-    <t>writing short stories</t>
-  </si>
-  <si>
-    <t>bridging cultures</t>
-  </si>
-  <si>
-    <t>raising a family</t>
-  </si>
-  <si>
-    <t>eluding the public gaze</t>
-  </si>
-  <si>
-    <t>obsessively washing hands</t>
-  </si>
-  <si>
-    <t>investigating alien abductions</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>running the FBI</t>
-  </si>
-  <si>
-    <t>running a media empire</t>
-  </si>
-  <si>
-    <t>composing classical music</t>
-  </si>
-  <si>
-    <t>making witty remarks</t>
-  </si>
-  <si>
-    <t>singing protest songs</t>
-  </si>
-  <si>
-    <t>playing pranks</t>
-  </si>
-  <si>
-    <t>singing romantic songs</t>
-  </si>
-  <si>
-    <t>punishing criminals</t>
-  </si>
-  <si>
-    <t>looking for love</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>2.50%</t>
+    <t>designing computer systems</t>
+  </si>
+  <si>
+    <t>performing office chores</t>
+  </si>
+  <si>
+    <t>spying on girls</t>
   </si>
 </sst>
 </file>
@@ -384,7 +381,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.5625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.69921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.85546875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="28.9375" customWidth="true" bestFit="true"/>
@@ -412,7 +409,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3395914162799004</v>
+        <v>0.38142171924784907</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -426,7 +423,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3982532073896325</v>
+        <v>0.18057681290280642</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -440,35 +437,35 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1668497611722168</v>
+        <v>0.13711802846929447</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3583871245600255</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.10623533305841387</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>0.39860599130159746</v>
+        <v>0.36203289090776847</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -479,55 +476,55 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1606490885674158</v>
+        <v>0.39650936256302616</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.397390354932681</v>
+        <v>0.39892322728347906</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>0.24153387110922742</v>
+        <v>0.09163032893503385</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03562412846183403</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.39794177729987884</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -535,10 +532,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09822898052870974</v>
+        <v>0.39256756705348744</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -549,10 +546,10 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3803093831096437</v>
+        <v>0.3989174191514278</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -563,503 +560,503 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
-        <v>0.15681353765839387</v>
+        <v>0.36294986075115815</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3909944148385279</v>
+      </c>
+      <c r="D14" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.39437395972976275</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3588926101348178</v>
+        <v>0.38683920392395926</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>0.15074796636238008</v>
+        <v>0.27177746133622954</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C17" t="n">
-        <v>0.17086315976959873</v>
+        <v>0.38234154759657735</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2591505732714528</v>
+        <v>0.22646832011932105</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>0.374250806521732</v>
+        <v>0.38058321580026366</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09044562520602045</v>
+        <v>0.3607500072123489</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.23860861019043103</v>
+        <v>0.29890576772674404</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3316306770249387</v>
+        <v>0.067010135600322</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3199784994596</v>
+        <v>0.23641390326342546</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C24" t="n">
-        <v>0.39864209294672415</v>
+        <v>0.24215471820560297</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>0.36580872191164</v>
+        <v>0.39629997850158166</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1915528135420327</v>
+        <v>0.3369560251412239</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3829467901372601</v>
+        <v>0.3203978047909483</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3927235387592101</v>
+        <v>0.11610648703621651</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3863412333022017</v>
+        <v>0.19877788726787773</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C30" t="n">
-        <v>0.366364889973574</v>
+        <v>0.3271010157473811</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>0.39307636367226834</v>
+        <v>0.37193706294185463</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C32" t="n">
-        <v>0.39014825280246557</v>
+        <v>0.1994364083542234</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2916858170296259</v>
+        <v>0.2686695646034928</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0434024737554235</v>
+        <v>0.26222839321887237</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C35" t="n">
-        <v>0.38695339883229013</v>
+        <v>0.19812000763440268</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>0.12145465458379637</v>
+        <v>0.39890399933676357</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="n">
-        <v>0.39640051994362585</v>
+        <v>0.2462620856067288</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="C38" t="n">
-        <v>0.025178875914967914</v>
+        <v>0.39482691721771307</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3850594803872542</v>
+        <v>0.24104026869929404</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C40" t="n">
-        <v>0.24066649152312367</v>
+        <v>0.36683580556858963</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3956311818460176</v>
+        <v>0.33621086458967087</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3909009427246488</v>
+        <v>0.394243841459758</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3231147145941374</v>
+        <v>0.2398402226917691</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3231221219204914</v>
+        <v>0.3897832287026928</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="C45" t="n">
-        <v>0.17299978862693619</v>
+        <v>0.39881182958149847</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C46" t="n">
-        <v>0.15579761792905242</v>
+        <v>0.37600644426686863</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2662614134825327</v>
+        <v>0.1817807330989482</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3949880256751762</v>
+        <v>0.3917673955019822</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49">
@@ -1067,13 +1064,13 @@
         <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C49" t="n">
-        <v>0.398699369808629</v>
+        <v>0.20216886004865292</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -1081,13 +1078,13 @@
         <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2425239076340108</v>
+        <v>0.12950161274147207</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -1098,35 +1095,35 @@
         <v>10</v>
       </c>
       <c r="C51" t="n">
-        <v>0.04249796235768887</v>
+        <v>0.18373234245537162</v>
       </c>
       <c r="D51" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C52" t="n">
-        <v>0.045496089306099406</v>
+        <v>0.13088021959336116</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C53" t="n">
-        <v>0.19900727845142682</v>
+        <v>0.37895698608863837</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
@@ -1134,44 +1131,44 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2673929639564654</v>
+        <v>0.018075187541506037</v>
       </c>
       <c r="D54" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1557004820851805</v>
+        <v>0.06747111040008061</v>
       </c>
       <c r="D55" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C56" t="n">
-        <v>0.08506075419054152</v>
+        <v>0.28497276756830603</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57">
@@ -1179,13 +1176,13 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C57" t="n">
-        <v>0.38299742383068847</v>
+        <v>0.1733789848796418</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -1196,10 +1193,10 @@
         <v>5</v>
       </c>
       <c r="C58" t="n">
-        <v>0.39602119171099004</v>
+        <v>0.08757559779418933</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59">
@@ -1207,13 +1204,13 @@
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C59" t="n">
-        <v>0.353070337776606</v>
+        <v>0.3471492677257574</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
@@ -1221,83 +1218,83 @@
         <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1512544705962119</v>
+        <v>0.3152238810313809</v>
       </c>
       <c r="D60" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3699838493304239</v>
+        <v>0.14225306389776468</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C62" t="n">
-        <v>0.16133228172427994</v>
+        <v>0.3680248965952233</v>
       </c>
       <c r="D62" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2927934116692024</v>
+        <v>0.35962897307352876</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C64" t="n">
-        <v>0.224393246619529</v>
+        <v>0.35977410346597244</v>
       </c>
       <c r="D64" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.37740471489177413</v>
+      </c>
+      <c r="D65" t="s">
         <v>81</v>
-      </c>
-      <c r="B65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.29472349310298035</v>
-      </c>
-      <c r="D65" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -1305,13 +1302,13 @@
         <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1455604817549823</v>
+        <v>0.11942249562788786</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67">
@@ -1319,13 +1316,13 @@
         <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3156177231465778</v>
+        <v>0.28591376446100014</v>
       </c>
       <c r="D67" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
@@ -1336,10 +1333,10 @@
         <v>10</v>
       </c>
       <c r="C68" t="n">
-        <v>0.22788202966275414</v>
+        <v>0.39114978580462134</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -1347,13 +1344,13 @@
         <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C69" t="n">
-        <v>0.30177534856674954</v>
+        <v>0.046295318797607385</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70">
@@ -1361,195 +1358,195 @@
         <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C70" t="n">
-        <v>0.35576127583468437</v>
+        <v>0.06462692856753464</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3947195988766873</v>
+        <v>0.36099880265667084</v>
       </c>
       <c r="D71" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3437800241346215</v>
+        <v>0.39894173934376337</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0479222692182976</v>
+        <v>0.3159464362245141</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C74" t="n">
-        <v>0.17177863591290157</v>
+        <v>0.05762839992324523</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
       <c r="C75" t="n">
-        <v>0.14710247869713544</v>
+        <v>0.11394913132440934</v>
       </c>
       <c r="D75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2802134429017531</v>
+        <v>0.3918248837854365</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3502102213676266</v>
+        <v>0.3842162249842369</v>
       </c>
       <c r="D77" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C78" t="n">
-        <v>0.38144289674805293</v>
+        <v>0.33901414586938916</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
       </c>
       <c r="C79" t="n">
-        <v>0.027073651927649364</v>
+        <v>0.198268298341954</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2225874191728002</v>
+        <v>0.19271765310962277</v>
       </c>
       <c r="D80" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3965236161968545</v>
+        <v>0.34026576744703346</v>
       </c>
       <c r="D81" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2005480715809005</v>
+        <v>0.10003793281260928</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
       </c>
       <c r="C83" t="n">
-        <v>0.25558317881187337</v>
+        <v>0.39135209102041874</v>
       </c>
       <c r="D83" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -1560,10 +1557,10 @@
         <v>10</v>
       </c>
       <c r="C84" t="n">
-        <v>0.37223102695339555</v>
+        <v>0.36730401472530644</v>
       </c>
       <c r="D84" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
@@ -1571,10 +1568,10 @@
         <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3852910121112331</v>
+        <v>0.16820324099277</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
@@ -1585,13 +1582,13 @@
         <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3804626014384492</v>
+        <v>0.3880990863689567</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
@@ -1602,38 +1599,38 @@
         <v>10</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2699086812576313</v>
+        <v>0.398238206143044</v>
       </c>
       <c r="D87" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C88" t="n">
-        <v>0.19435262998594097</v>
+        <v>0.39886728293060375</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3814296636666888</v>
+        <v>0.3398198840665538</v>
       </c>
       <c r="D89" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
@@ -1641,10 +1638,10 @@
         <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C90" t="n">
-        <v>0.38749967166909693</v>
+        <v>0.1441603937747287</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
@@ -1655,13 +1652,13 @@
         <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3823915397164321</v>
+        <v>0.3329976458184782</v>
       </c>
       <c r="D91" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis60.xlsx
+++ b/Analysis60.xlsx
@@ -26,304 +26,304 @@
     <t>Percentage Distribution</t>
   </si>
   <si>
-    <t>writing hawkish memos</t>
+    <t>playing the piano</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
+    <t>1.33%</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>0.67%</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>0.33%</t>
+  </si>
+  <si>
+    <t>fighting Carthaginians</t>
+  </si>
+  <si>
+    <t>following the money</t>
+  </si>
+  <si>
+    <t>1.17%</t>
+  </si>
+  <si>
+    <t>making money</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>2.33%</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>1.00%</t>
+  </si>
+  <si>
+    <t>writing romantic poetry</t>
+  </si>
+  <si>
+    <t>0.50%</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>0.83%</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>looking after mother</t>
+  </si>
+  <si>
+    <t>2.17%</t>
+  </si>
+  <si>
+    <t>selling consumer goods</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes</t>
+  </si>
+  <si>
+    <t>2.50%</t>
+  </si>
+  <si>
+    <t>signing sports memorabilia</t>
+  </si>
+  <si>
+    <t>moaning about women</t>
+  </si>
+  <si>
     <t>2.00%</t>
   </si>
   <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>0.50%</t>
-  </si>
-  <si>
-    <t>tracking down fugitives</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>1.00%</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>1.33%</t>
-  </si>
-  <si>
-    <t>promoting nerd culture</t>
-  </si>
-  <si>
-    <t>leading armies into battle</t>
-  </si>
-  <si>
-    <t>2.17%</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>0.33%</t>
-  </si>
-  <si>
-    <t>promoting the Dark Side</t>
+    <t>writing modern poetry</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>painting self-portraits</t>
+  </si>
+  <si>
+    <t>1.50%</t>
+  </si>
+  <si>
+    <t>pushing the hardline</t>
+  </si>
+  <si>
+    <t>leaking state secrets</t>
+  </si>
+  <si>
+    <t>eating donuts</t>
+  </si>
+  <si>
+    <t>gossiping with galpals</t>
+  </si>
+  <si>
+    <t>1.83%</t>
+  </si>
+  <si>
+    <t>playing rock music</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>guarding the galaxy</t>
+  </si>
+  <si>
+    <t>making condescending remarks</t>
+  </si>
+  <si>
+    <t>performing serious acting</t>
+  </si>
+  <si>
+    <t>monetizing celebrity status</t>
+  </si>
+  <si>
+    <t>writing serialized stories</t>
+  </si>
+  <si>
+    <t>suppressing minorities</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>performing magic tricks</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>chasing after women</t>
+  </si>
+  <si>
+    <t>winning tennis tournaments</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>telling bad jokes</t>
+  </si>
+  <si>
+    <t>complaining about capitalism</t>
+  </si>
+  <si>
+    <t>performing Web searches</t>
+  </si>
+  <si>
+    <t>promoting Objectivism</t>
+  </si>
+  <si>
+    <t>0.17%</t>
+  </si>
+  <si>
+    <t>writing cook books</t>
+  </si>
+  <si>
+    <t>preaching tolerance</t>
+  </si>
+  <si>
+    <t>selling fast food</t>
   </si>
   <si>
     <t>0.00%</t>
   </si>
   <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>winning boxing matches</t>
+  </si>
+  <si>
+    <t>hiding from extremists</t>
+  </si>
+  <si>
+    <t>ranting about politics</t>
+  </si>
+  <si>
     <t>hosting a late night chat show</t>
   </si>
   <si>
-    <t>2.50%</t>
+    <t>directing movies</t>
+  </si>
+  <si>
+    <t>painting colorful pictures</t>
+  </si>
+  <si>
+    <t>carrying secret plans</t>
+  </si>
+  <si>
+    <t>womanizing</t>
+  </si>
+  <si>
+    <t>writing pot-boilers</t>
+  </si>
+  <si>
+    <t>smoking herb</t>
+  </si>
+  <si>
+    <t>chasing electronic ghosts</t>
+  </si>
+  <si>
+    <t>fencing stolen goods</t>
+  </si>
+  <si>
+    <t>2.67%</t>
+  </si>
+  <si>
+    <t>singing protest songs</t>
+  </si>
+  <si>
+    <t>pushing haute couture</t>
+  </si>
+  <si>
+    <t>writing political satires</t>
+  </si>
+  <si>
+    <t>writing comedy</t>
+  </si>
+  <si>
+    <t>making bad movies</t>
+  </si>
+  <si>
+    <t>feeding the poor</t>
+  </si>
+  <si>
+    <t>campaigning for social causes</t>
+  </si>
+  <si>
+    <t>building rocket ships</t>
+  </si>
+  <si>
+    <t>offering medical opinions</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
   </si>
   <si>
     <t>singing to teenagers</t>
   </si>
   <si>
-    <t>1.50%</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>0.83%</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>0.67%</t>
-  </si>
-  <si>
-    <t>interviewing politicians</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
-  </si>
-  <si>
-    <t>1.17%</t>
-  </si>
-  <si>
-    <t>making lewd remarks</t>
-  </si>
-  <si>
-    <t>escaping from handcuffs</t>
-  </si>
-  <si>
-    <t>interpreting evidence</t>
-  </si>
-  <si>
-    <t>0.17%</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>cheating clients</t>
-  </si>
-  <si>
-    <t>following the money</t>
-  </si>
-  <si>
-    <t>writing cook books</t>
-  </si>
-  <si>
-    <t>running a large metropolitan city</t>
-  </si>
-  <si>
-    <t>1.83%</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>promoting Catholic values</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes</t>
-  </si>
-  <si>
-    <t>incurring debts</t>
-  </si>
-  <si>
-    <t>gyrating hips</t>
-  </si>
-  <si>
-    <t>monetizing celebrity status</t>
-  </si>
-  <si>
-    <t>bullying schoolkids</t>
-  </si>
-  <si>
-    <t>hosting anodyne game shows</t>
-  </si>
-  <si>
-    <t>singing jazz songs</t>
-  </si>
-  <si>
-    <t>making unauthorized sex tapes</t>
-  </si>
-  <si>
-    <t>womanizing</t>
-  </si>
-  <si>
-    <t>1.67%</t>
-  </si>
-  <si>
-    <t>investing money</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>fawning on the boss</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>hunting monsters</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>carving magnificent statues</t>
-  </si>
-  <si>
-    <t>studying gorillas up close</t>
-  </si>
-  <si>
-    <t>riding a bicycle</t>
-  </si>
-  <si>
-    <t>evading mercenaries</t>
-  </si>
-  <si>
-    <t>convicting criminals</t>
-  </si>
-  <si>
-    <t>doing raunchy stage acts</t>
-  </si>
-  <si>
-    <t>causing mayhem</t>
-  </si>
-  <si>
-    <t>making cartoons</t>
-  </si>
-  <si>
-    <t>writing short stories</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>testing new technologies</t>
-  </si>
-  <si>
-    <t>undermining authority</t>
-  </si>
-  <si>
-    <t>studying magic</t>
-  </si>
-  <si>
-    <t>running a bureaucracy</t>
-  </si>
-  <si>
-    <t>2.33%</t>
-  </si>
-  <si>
-    <t>having meltdowns in public</t>
-  </si>
-  <si>
-    <t>performing kung-fu moves</t>
-  </si>
-  <si>
-    <t>postulating bizarre theories</t>
-  </si>
-  <si>
-    <t>flipping hamburgers</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>suppressing violent urges</t>
-  </si>
-  <si>
-    <t>winning swimming competitions</t>
-  </si>
-  <si>
-    <t>smuggling contraband</t>
-  </si>
-  <si>
-    <t>warning about totalitarianism</t>
-  </si>
-  <si>
-    <t>eluding hunters</t>
-  </si>
-  <si>
-    <t>nursing a messiah complex</t>
-  </si>
-  <si>
-    <t>winning tennis tournaments</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency</t>
+    <t>driving around America</t>
+  </si>
+  <si>
+    <t>jumping over buses on motorbikes</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
+  </si>
+  <si>
+    <t>promoting feminism</t>
+  </si>
+  <si>
+    <t>providing comic relief</t>
+  </si>
+  <si>
+    <t>over-acting</t>
   </si>
   <si>
     <t>climbing social ladders</t>
   </si>
   <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>biting opponents</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>phoning home</t>
-  </si>
-  <si>
-    <t>designing computer systems</t>
-  </si>
-  <si>
-    <t>performing office chores</t>
-  </si>
-  <si>
-    <t>spying on girls</t>
+    <t>making propagandistic movies</t>
+  </si>
+  <si>
+    <t>brewing magican potions</t>
+  </si>
+  <si>
+    <t>directing action movies</t>
+  </si>
+  <si>
+    <t>selling chrystal meth</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.5625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.97265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.69921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.85546875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="28.9375" customWidth="true" bestFit="true"/>
@@ -409,7 +409,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.38142171924784907</v>
+        <v>0.3313969467653612</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -423,7 +423,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18057681290280642</v>
+        <v>0.3176922485571153</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -437,24 +437,24 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.13711802846929447</v>
+        <v>0.20826103448327724</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3583871245600255</v>
+        <v>0.3822138181559788</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -462,83 +462,83 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.34046597654582517</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.36203289090776847</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>0.39650936256302616</v>
+        <v>0.35942274573127464</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>0.39892322728347906</v>
+        <v>0.3517743622508807</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09163032893503385</v>
+        <v>0.3869256210564802</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03562412846183403</v>
+        <v>0.3422924885513677</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.39256756705348744</v>
+        <v>0.05719384430726333</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -546,10 +546,10 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3989174191514278</v>
+        <v>0.331100867901987</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -560,27 +560,27 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0.36294986075115815</v>
+        <v>0.372540084754141</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3327734093018259</v>
+      </c>
+      <c r="D14" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3909944148385279</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -588,13 +588,13 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>0.38683920392395926</v>
+        <v>0.31878569029219794</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -602,10 +602,10 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>0.27177746133622954</v>
+        <v>0.3244439111595342</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
@@ -613,363 +613,363 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.38234154759657735</v>
+        <v>0.029219370436407304</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>0.22646832011932105</v>
+        <v>0.28239630861443027</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>0.38058321580026366</v>
+        <v>0.2926353784898117</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3607500072123489</v>
+        <v>0.3971578204444958</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.29890576772674404</v>
+        <v>0.3317615794385373</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C22" t="n">
-        <v>0.067010135600322</v>
+        <v>0.24122830469020032</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>0.23641390326342546</v>
+        <v>0.35841706596581746</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C24" t="n">
-        <v>0.24215471820560297</v>
+        <v>0.3059013717773605</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C25" t="n">
-        <v>0.39629997850158166</v>
+        <v>0.39145331448849413</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3369560251412239</v>
+        <v>0.18544455711724048</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3203978047909483</v>
+        <v>0.2851974460362429</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C28" t="n">
-        <v>0.11610648703621651</v>
+        <v>0.3384821292079457</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C29" t="n">
-        <v>0.19877788726787773</v>
+        <v>0.2484884933424086</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3271010157473811</v>
+        <v>0.2841175506321908</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>0.37193706294185463</v>
+        <v>0.2802051148532822</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1994364083542234</v>
+        <v>0.36670993561982945</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2686695646034928</v>
+        <v>0.38709500174114775</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C34" t="n">
-        <v>0.26222839321887237</v>
+        <v>0.34833774691928376</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>0.19812000763440268</v>
+        <v>0.3113609282889523</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C36" t="n">
-        <v>0.39890399933676357</v>
+        <v>0.397570032540338</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2462620856067288</v>
+        <v>0.3766667454113721</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C38" t="n">
-        <v>0.39482691721771307</v>
+        <v>0.17653035184638527</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C39" t="n">
-        <v>0.24104026869929404</v>
+        <v>0.38551420045577767</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C40" t="n">
-        <v>0.36683580556858963</v>
+        <v>0.3790621227831342</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C41" t="n">
-        <v>0.33621086458967087</v>
+        <v>0.1476730885064266</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
       <c r="C42" t="n">
-        <v>0.394243841459758</v>
+        <v>0.39839921013602914</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
@@ -977,100 +977,100 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2398402226917691</v>
+        <v>0.3652955737336626</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3897832287026928</v>
+        <v>0.39075252884043815</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C45" t="n">
-        <v>0.39881182958149847</v>
+        <v>0.15246894977354825</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
       <c r="C46" t="n">
-        <v>0.37600644426686863</v>
+        <v>0.2940322001734219</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1817807330989482</v>
+        <v>0.3758974620364979</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3917673955019822</v>
+        <v>0.32472528032836495</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.015607986601214202</v>
+      </c>
+      <c r="D49" t="s">
         <v>67</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.20216886004865292</v>
-      </c>
-      <c r="D49" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -1078,13 +1078,13 @@
         <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C50" t="n">
-        <v>0.12950161274147207</v>
+        <v>0.14522977062070327</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
@@ -1095,66 +1095,66 @@
         <v>10</v>
       </c>
       <c r="C51" t="n">
-        <v>0.18373234245537162</v>
+        <v>0.03113583386035944</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C52" t="n">
-        <v>0.13088021959336116</v>
+        <v>0.39020479244365136</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C53" t="n">
-        <v>0.37895698608863837</v>
+        <v>0.19190739481684266</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>0.018075187541506037</v>
+        <v>0.3130392309023581</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C55" t="n">
-        <v>0.06747111040008061</v>
+        <v>0.39891116787434144</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56">
@@ -1165,10 +1165,10 @@
         <v>10</v>
       </c>
       <c r="C56" t="n">
-        <v>0.28497276756830603</v>
+        <v>0.17033364191824674</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57">
@@ -1176,13 +1176,13 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1733789848796418</v>
+        <v>0.1948892896553095</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -1190,13 +1190,13 @@
         <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08757559779418933</v>
+        <v>0.029606281138419007</v>
       </c>
       <c r="D58" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59">
@@ -1204,13 +1204,13 @@
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3471492677257574</v>
+        <v>0.25583899007261024</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60">
@@ -1218,139 +1218,139 @@
         <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3152238810313809</v>
+        <v>0.24554543135637485</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>0.14225306389776468</v>
+        <v>0.38400218489972215</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3680248965952233</v>
+        <v>0.3911096730752892</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C63" t="n">
-        <v>0.35962897307352876</v>
+        <v>0.3463620584324378</v>
       </c>
       <c r="D63" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C64" t="n">
-        <v>0.35977410346597244</v>
+        <v>0.36952572016444085</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
       </c>
       <c r="C65" t="n">
-        <v>0.37740471489177413</v>
+        <v>0.39842831010942875</v>
       </c>
       <c r="D65" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>0.11942249562788786</v>
+        <v>0.3918333409092457</v>
       </c>
       <c r="D66" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C67" t="n">
-        <v>0.28591376446100014</v>
+        <v>0.23143086444352512</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C68" t="n">
-        <v>0.39114978580462134</v>
+        <v>0.3971579078009839</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
       </c>
       <c r="C69" t="n">
-        <v>0.046295318797607385</v>
+        <v>0.1702614253837687</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -1361,175 +1361,175 @@
         <v>10</v>
       </c>
       <c r="C70" t="n">
-        <v>0.06462692856753464</v>
+        <v>0.39058455132076525</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>0.36099880265667084</v>
+        <v>0.2695427461904123</v>
       </c>
       <c r="D71" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
       </c>
       <c r="C72" t="n">
-        <v>0.39894173934376337</v>
+        <v>0.3050071722092969</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3159464362245141</v>
+        <v>0.39692685826385504</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C74" t="n">
-        <v>0.05762839992324523</v>
+        <v>0.3810027697195528</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C75" t="n">
-        <v>0.11394913132440934</v>
+        <v>0.19137334121529495</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3918248837854365</v>
+        <v>0.11844912496659665</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3842162249842369</v>
+        <v>0.3507395333320461</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>0.33901414586938916</v>
+        <v>0.3479333614003518</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C79" t="n">
-        <v>0.198268298341954</v>
+        <v>0.39894226951235645</v>
       </c>
       <c r="D79" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C80" t="n">
-        <v>0.19271765310962277</v>
+        <v>0.39722283143572246</v>
       </c>
       <c r="D80" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C81" t="n">
-        <v>0.34026576744703346</v>
+        <v>0.3987922187077178</v>
       </c>
       <c r="D81" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C82" t="n">
-        <v>0.10003793281260928</v>
+        <v>0.3933417560770052</v>
       </c>
       <c r="D82" t="s">
         <v>32</v>
@@ -1537,128 +1537,128 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C83" t="n">
-        <v>0.39135209102041874</v>
+        <v>0.14031380584924052</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C84" t="n">
-        <v>0.36730401472530644</v>
+        <v>0.373571088986913</v>
       </c>
       <c r="D84" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
       </c>
       <c r="C85" t="n">
-        <v>0.16820324099277</v>
+        <v>0.31779869381528325</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3880990863689567</v>
+        <v>0.024214601156275117</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C87" t="n">
-        <v>0.398238206143044</v>
+        <v>0.10629247465496204</v>
       </c>
       <c r="D87" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B88" t="s">
         <v>10</v>
       </c>
       <c r="C88" t="n">
-        <v>0.39886728293060375</v>
+        <v>0.39691452820713957</v>
       </c>
       <c r="D88" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3398198840665538</v>
+        <v>0.07100343467230107</v>
       </c>
       <c r="D89" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1441603937747287</v>
+        <v>0.18205108937068754</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3329976458184782</v>
+        <v>0.3731467183259985</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis60.xlsx
+++ b/Analysis60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="108">
   <si>
     <t>Research Activity</t>
   </si>
@@ -26,304 +26,316 @@
     <t>Percentage Distribution</t>
   </si>
   <si>
-    <t>writing hawkish memos</t>
+    <t>evading mercenaries</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>1.17%</t>
+  </si>
+  <si>
+    <t>making dumb comedies</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>killing people in ingenious ways</t>
+  </si>
+  <si>
+    <t>0.83%</t>
+  </si>
+  <si>
+    <t>writing mystery stories</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>ranting about minorities</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>1.00%</t>
+  </si>
+  <si>
+    <t>playing aggressive chess</t>
+  </si>
+  <si>
+    <t>1.83%</t>
+  </si>
+  <si>
+    <t>currying favour</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>squabbling on television</t>
+  </si>
+  <si>
+    <t>0.67%</t>
+  </si>
+  <si>
+    <t>playing drums</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>building rocket ships</t>
+  </si>
+  <si>
+    <t>1.50%</t>
+  </si>
+  <si>
+    <t>lecturing about climate change</t>
+  </si>
+  <si>
+    <t>0.17%</t>
+  </si>
+  <si>
+    <t>singing opera arias</t>
+  </si>
+  <si>
+    <t>cooking for friends</t>
+  </si>
+  <si>
+    <t>1.33%</t>
+  </si>
+  <si>
+    <t>rooting out moles</t>
+  </si>
+  <si>
+    <t>performing magic tricks</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>0.50%</t>
+  </si>
+  <si>
+    <t>posing for photographs</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
+  </si>
+  <si>
+    <t>escaping from reality</t>
+  </si>
+  <si>
+    <t>playing classical piano</t>
+  </si>
+  <si>
+    <t>explaining natural selection</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>conducting illicit affairs</t>
+  </si>
+  <si>
+    <t>2.17%</t>
+  </si>
+  <si>
+    <t>investigating alien abductions</t>
+  </si>
+  <si>
+    <t>spreading political gossip</t>
+  </si>
+  <si>
+    <t>hunting raccoons</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>eating donuts</t>
+  </si>
+  <si>
+    <t>seeking revenge</t>
+  </si>
+  <si>
+    <t>writing plays</t>
+  </si>
+  <si>
+    <t>getting plastic surgery</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>licking frogs</t>
+  </si>
+  <si>
+    <t>developing cunning plans</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>defending the Earth</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>0.33%</t>
+  </si>
+  <si>
+    <t>playing the saxophone</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>retiring replicants</t>
+  </si>
+  <si>
+    <t>making fantasy movies</t>
+  </si>
+  <si>
+    <t>robbing banks</t>
+  </si>
+  <si>
+    <t>singing country music</t>
+  </si>
+  <si>
+    <t>looking after children</t>
+  </si>
+  <si>
+    <t>suppressing minorities</t>
+  </si>
+  <si>
     <t>2.00%</t>
   </si>
   <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>0.50%</t>
-  </si>
-  <si>
-    <t>tracking down fugitives</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>1.00%</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>1.33%</t>
-  </si>
-  <si>
-    <t>promoting nerd culture</t>
-  </si>
-  <si>
-    <t>leading armies into battle</t>
-  </si>
-  <si>
-    <t>2.17%</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>0.33%</t>
-  </si>
-  <si>
-    <t>promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>2.50%</t>
-  </si>
-  <si>
-    <t>singing to teenagers</t>
-  </si>
-  <si>
-    <t>1.50%</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>0.83%</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>0.67%</t>
-  </si>
-  <si>
-    <t>interviewing politicians</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
-  </si>
-  <si>
-    <t>1.17%</t>
-  </si>
-  <si>
-    <t>making lewd remarks</t>
-  </si>
-  <si>
-    <t>escaping from handcuffs</t>
-  </si>
-  <si>
-    <t>interpreting evidence</t>
-  </si>
-  <si>
-    <t>0.17%</t>
+    <t>fighting the forces of good</t>
+  </si>
+  <si>
+    <t>manipulating ingenues</t>
+  </si>
+  <si>
+    <t>singing goofy songs</t>
+  </si>
+  <si>
+    <t>making suspense movies</t>
+  </si>
+  <si>
+    <t>promoting new technologies</t>
+  </si>
+  <si>
+    <t>promoting diversity</t>
+  </si>
+  <si>
+    <t>watching TV</t>
+  </si>
+  <si>
+    <t>singing parody songs</t>
+  </si>
+  <si>
+    <t>racking up marriages</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>playing pranks</t>
+  </si>
+  <si>
+    <t>chasing jellyfish</t>
+  </si>
+  <si>
+    <t>waxing a surfboard</t>
+  </si>
+  <si>
+    <t>2.67%</t>
+  </si>
+  <si>
+    <t>duelling acrobatically</t>
+  </si>
+  <si>
+    <t>causing political scandals</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>keeping a diary</t>
+  </si>
+  <si>
+    <t>campaigning for world peace</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>escaping from water tanks</t>
+  </si>
+  <si>
+    <t>campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>being a good neighbor</t>
+  </si>
+  <si>
+    <t>campaigning for democracy</t>
+  </si>
+  <si>
+    <t>fighting for civil rights</t>
+  </si>
+  <si>
+    <t>running a hardware company</t>
   </si>
   <si>
     <t>starring in Hollywood movies</t>
   </si>
   <si>
-    <t>cheating clients</t>
-  </si>
-  <si>
-    <t>following the money</t>
-  </si>
-  <si>
-    <t>writing cook books</t>
-  </si>
-  <si>
-    <t>running a large metropolitan city</t>
-  </si>
-  <si>
-    <t>1.83%</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>promoting Catholic values</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes</t>
-  </si>
-  <si>
-    <t>incurring debts</t>
-  </si>
-  <si>
-    <t>gyrating hips</t>
-  </si>
-  <si>
-    <t>monetizing celebrity status</t>
-  </si>
-  <si>
-    <t>bullying schoolkids</t>
-  </si>
-  <si>
-    <t>hosting anodyne game shows</t>
-  </si>
-  <si>
-    <t>singing jazz songs</t>
-  </si>
-  <si>
-    <t>making unauthorized sex tapes</t>
-  </si>
-  <si>
-    <t>womanizing</t>
-  </si>
-  <si>
-    <t>1.67%</t>
-  </si>
-  <si>
-    <t>investing money</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>fawning on the boss</t>
+    <t>drinking one's life away</t>
+  </si>
+  <si>
+    <t>writing modern poetry</t>
+  </si>
+  <si>
+    <t>tracking down criminals</t>
+  </si>
+  <si>
+    <t>competing in the Olympics</t>
   </si>
   <si>
     <t>singing rock songs</t>
   </si>
   <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>hunting monsters</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>carving magnificent statues</t>
-  </si>
-  <si>
-    <t>studying gorillas up close</t>
-  </si>
-  <si>
-    <t>riding a bicycle</t>
-  </si>
-  <si>
-    <t>evading mercenaries</t>
-  </si>
-  <si>
-    <t>convicting criminals</t>
-  </si>
-  <si>
-    <t>doing raunchy stage acts</t>
-  </si>
-  <si>
-    <t>causing mayhem</t>
-  </si>
-  <si>
-    <t>making cartoons</t>
-  </si>
-  <si>
-    <t>writing short stories</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>testing new technologies</t>
-  </si>
-  <si>
-    <t>undermining authority</t>
-  </si>
-  <si>
-    <t>studying magic</t>
-  </si>
-  <si>
-    <t>running a bureaucracy</t>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>ranting about politics</t>
   </si>
   <si>
     <t>2.33%</t>
   </si>
   <si>
-    <t>having meltdowns in public</t>
-  </si>
-  <si>
-    <t>performing kung-fu moves</t>
-  </si>
-  <si>
-    <t>postulating bizarre theories</t>
-  </si>
-  <si>
-    <t>flipping hamburgers</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>suppressing violent urges</t>
-  </si>
-  <si>
-    <t>winning swimming competitions</t>
-  </si>
-  <si>
-    <t>smuggling contraband</t>
-  </si>
-  <si>
-    <t>warning about totalitarianism</t>
-  </si>
-  <si>
-    <t>eluding hunters</t>
-  </si>
-  <si>
-    <t>nursing a messiah complex</t>
-  </si>
-  <si>
-    <t>winning tennis tournaments</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>biting opponents</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>phoning home</t>
-  </si>
-  <si>
-    <t>designing computer systems</t>
-  </si>
-  <si>
-    <t>performing office chores</t>
-  </si>
-  <si>
-    <t>spying on girls</t>
+    <t>writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>directing comedies</t>
+  </si>
+  <si>
+    <t>promoting enlightenment</t>
+  </si>
+  <si>
+    <t>chasing old women</t>
   </si>
 </sst>
 </file>
@@ -381,10 +393,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.5625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.69921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.85546875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="28.9375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.52734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.11328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.671875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="27.51953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -409,7 +421,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.38142171924784907</v>
+        <v>0.3632483535208533</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -420,69 +432,69 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18057681290280642</v>
+        <v>0.35742977963771205</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.13711802846929447</v>
+        <v>0.398038617168194</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3583871245600255</v>
+        <v>0.37727017801925467</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.36203289090776847</v>
+        <v>0.3692329548492848</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.17171257711517543</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.39650936256302616</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -490,10 +502,10 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.39892322728347906</v>
+        <v>0.3379857331910993</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -504,10 +516,10 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09163032893503385</v>
+        <v>0.1829910802605562</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -518,10 +530,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03562412846183403</v>
+        <v>0.3578860708787029</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -532,94 +544,94 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>0.39256756705348744</v>
+        <v>0.24561886945997777</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3989174191514278</v>
+        <v>0.1485377181328393</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0.36294986075115815</v>
+        <v>0.35124847384441216</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3909944148385279</v>
+        <v>0.3758318859679818</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>0.38683920392395926</v>
+        <v>0.21754500180445482</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>0.27177746133622954</v>
+        <v>0.10955481392976968</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>0.38234154759657735</v>
+        <v>0.28208028963336546</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
@@ -627,422 +639,422 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>0.22646832011932105</v>
+        <v>0.3744703763438268</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>0.38058321580026366</v>
+        <v>0.3272336745146442</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3607500072123489</v>
+        <v>0.15001786335845557</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>0.29890576772674404</v>
+        <v>0.3575640009250212</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>0.067010135600322</v>
+        <v>0.39323420830568556</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.23641390326342546</v>
+        <v>0.02054910638136892</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>0.24215471820560297</v>
+        <v>0.10838422155459841</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>0.39629997850158166</v>
+        <v>0.18272764378891734</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3369560251412239</v>
+        <v>0.125972138380705</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3203978047909483</v>
+        <v>0.34864742113754804</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>0.11610648703621651</v>
+        <v>0.2555528735033412</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>0.19877788726787773</v>
+        <v>0.38758224940174235</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3271010157473811</v>
+        <v>0.1401312913471224</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C31" t="n">
-        <v>0.37193706294185463</v>
+        <v>0.398870085593988</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1994364083542234</v>
+        <v>0.3772713120275205</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2686695646034928</v>
+        <v>0.2294950109800361</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" t="n">
-        <v>0.26222839321887237</v>
+        <v>0.3768005491640311</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C35" t="n">
-        <v>0.19812000763440268</v>
+        <v>0.348411295082051</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>0.39890399933676357</v>
+        <v>0.39513497117409424</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2462620856067288</v>
+        <v>0.2917330514422615</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C38" t="n">
-        <v>0.39482691721771307</v>
+        <v>0.2552749032833688</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C39" t="n">
-        <v>0.24104026869929404</v>
+        <v>0.37650302905421434</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
       <c r="C40" t="n">
-        <v>0.36683580556858963</v>
+        <v>0.3694681557156363</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.33621086458967087</v>
+        <v>0.39878863448111457</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>0.394243841459758</v>
+        <v>0.17410867951631673</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2398402226917691</v>
+        <v>0.1734483661794449</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3897832287026928</v>
+        <v>0.09094513185653112</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C45" t="n">
-        <v>0.39881182958149847</v>
+        <v>0.3928064975897786</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0.37600644426686863</v>
+        <v>0.32996743207774204</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1817807330989482</v>
+        <v>0.3244557946786167</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -1050,307 +1062,307 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3917673955019822</v>
+        <v>0.3987651969101028</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C49" t="n">
-        <v>0.20216886004865292</v>
+        <v>0.15751296749488447</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>0.12950161274147207</v>
+        <v>0.34466156810723464</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C51" t="n">
-        <v>0.18373234245537162</v>
+        <v>0.3761877092524131</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C52" t="n">
-        <v>0.13088021959336116</v>
+        <v>0.3970126928670319</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C53" t="n">
-        <v>0.37895698608863837</v>
+        <v>0.22631978481245238</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>0.018075187541506037</v>
+        <v>0.38814898926188884</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C55" t="n">
-        <v>0.06747111040008061</v>
+        <v>0.38629094172851625</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C56" t="n">
-        <v>0.28497276756830603</v>
+        <v>0.3951992047540464</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1733789848796418</v>
+        <v>0.3961007506691909</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08757559779418933</v>
+        <v>0.37971688235283807</v>
       </c>
       <c r="D58" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3471492677257574</v>
+        <v>0.2380360235253691</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3152238810313809</v>
+        <v>0.21298759231827843</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>0.14225306389776468</v>
+        <v>0.22314522221429986</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3680248965952233</v>
+        <v>0.39844459095343393</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C63" t="n">
-        <v>0.35962897307352876</v>
+        <v>0.3386386114255844</v>
       </c>
       <c r="D63" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C64" t="n">
-        <v>0.35977410346597244</v>
+        <v>0.3940003764525356</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C65" t="n">
-        <v>0.37740471489177413</v>
+        <v>0.38433606946417076</v>
       </c>
       <c r="D65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>0.11942249562788786</v>
+        <v>0.37461023524452924</v>
       </c>
       <c r="D66" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C67" t="n">
-        <v>0.28591376446100014</v>
+        <v>0.39876945347592124</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C68" t="n">
-        <v>0.39114978580462134</v>
+        <v>0.32854792293054746</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C69" t="n">
-        <v>0.046295318797607385</v>
+        <v>0.29322936403143035</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -1358,178 +1370,178 @@
         <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C70" t="n">
-        <v>0.06462692856753464</v>
+        <v>0.3858105885038554</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C71" t="n">
-        <v>0.36099880265667084</v>
+        <v>0.12341153808180898</v>
       </c>
       <c r="D71" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C72" t="n">
-        <v>0.39894173934376337</v>
+        <v>0.30736208902661166</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3159464362245141</v>
+        <v>0.25353632299324314</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C74" t="n">
-        <v>0.05762839992324523</v>
+        <v>0.3937038772436473</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
       <c r="C75" t="n">
-        <v>0.11394913132440934</v>
+        <v>0.38936557428245544</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3918248837854365</v>
+        <v>0.0027144916153915054</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3842162249842369</v>
+        <v>0.2668200124200558</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C78" t="n">
-        <v>0.33901414586938916</v>
+        <v>0.3853172013932575</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C79" t="n">
-        <v>0.198268298341954</v>
+        <v>0.25309021160163775</v>
       </c>
       <c r="D79" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
       </c>
       <c r="C80" t="n">
-        <v>0.19271765310962277</v>
+        <v>0.24452234730701164</v>
       </c>
       <c r="D80" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C81" t="n">
-        <v>0.34026576744703346</v>
+        <v>0.13478299563108817</v>
       </c>
       <c r="D81" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C82" t="n">
-        <v>0.10003793281260928</v>
+        <v>0.38664520716084383</v>
       </c>
       <c r="D82" t="s">
         <v>32</v>
@@ -1537,128 +1549,128 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C83" t="n">
-        <v>0.39135209102041874</v>
+        <v>0.1406965530700153</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>0.36730401472530644</v>
+        <v>0.18128491238216302</v>
       </c>
       <c r="D84" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C85" t="n">
-        <v>0.16820324099277</v>
+        <v>0.3629805910572497</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3880990863689567</v>
+        <v>0.3927947680277131</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C87" t="n">
-        <v>0.398238206143044</v>
+        <v>0.308832328952356</v>
       </c>
       <c r="D87" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C88" t="n">
-        <v>0.39886728293060375</v>
+        <v>0.2694417539497845</v>
       </c>
       <c r="D88" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3398198840665538</v>
+        <v>0.352694982601627</v>
       </c>
       <c r="D89" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1441603937747287</v>
+        <v>0.10383337906939706</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3329976458184782</v>
+        <v>0.26877339198796696</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis60.xlsx
+++ b/Analysis60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="106">
   <si>
     <t>Research Activity</t>
   </si>
@@ -26,316 +26,310 @@
     <t>Percentage Distribution</t>
   </si>
   <si>
-    <t>evading mercenaries</t>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>1.33%</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>1.17%</t>
+  </si>
+  <si>
+    <t>giving investment advice</t>
+  </si>
+  <si>
+    <t>0.83%</t>
+  </si>
+  <si>
+    <t>directing animated films</t>
+  </si>
+  <si>
+    <t>running a clandestine spy organization</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>1.17%</t>
-  </si>
-  <si>
-    <t>making dumb comedies</t>
+    <t>0.17%</t>
+  </si>
+  <si>
+    <t>wielding political power</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
+    <t>0.67%</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>1.00%</t>
+  </si>
+  <si>
+    <t>running a communist country</t>
+  </si>
+  <si>
     <t>1.67%</t>
   </si>
   <si>
-    <t>killing people in ingenious ways</t>
-  </si>
-  <si>
-    <t>0.83%</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>ranting about minorities</t>
-  </si>
-  <si>
-    <t>defending the weak</t>
-  </si>
-  <si>
-    <t>1.00%</t>
+    <t>finding clues</t>
+  </si>
+  <si>
+    <t>1.83%</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>inventing time machines</t>
+  </si>
+  <si>
+    <t>surviving fatwas</t>
+  </si>
+  <si>
+    <t>1.50%</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>0.50%</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>giving self-help lectures</t>
+  </si>
+  <si>
+    <t>0.33%</t>
+  </si>
+  <si>
+    <t>falling gracefully</t>
+  </si>
+  <si>
+    <t>2.00%</t>
+  </si>
+  <si>
+    <t>singing protest songs</t>
+  </si>
+  <si>
+    <t>chasing flappers</t>
+  </si>
+  <si>
+    <t>2.83%</t>
+  </si>
+  <si>
+    <t>eating donuts</t>
+  </si>
+  <si>
+    <t>2.67%</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>proving math theorems</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>kicking ass</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>surviving large-scale floods</t>
+  </si>
+  <si>
+    <t>promoting Darwinism</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>promoting capitalism</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>exploring the new world</t>
+  </si>
+  <si>
+    <t>campaigning for environmental causes</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>currying favour</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>2.33%</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>plagiarizing political speeches</t>
+  </si>
+  <si>
+    <t>preventing crime</t>
+  </si>
+  <si>
+    <t>promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>making vulgar jokes</t>
+  </si>
+  <si>
+    <t>tossing coins</t>
+  </si>
+  <si>
+    <t>amassing nuclear weapons</t>
+  </si>
+  <si>
+    <t>rescuing hostages</t>
+  </si>
+  <si>
+    <t>plotting election strategies</t>
+  </si>
+  <si>
+    <t>disposing of unwanted jewelry</t>
+  </si>
+  <si>
+    <t>advising on foreign affairs</t>
+  </si>
+  <si>
+    <t>letting one's hair down</t>
+  </si>
+  <si>
+    <t>breaking records</t>
+  </si>
+  <si>
+    <t>racing fast cars</t>
+  </si>
+  <si>
+    <t>directing science fiction movies</t>
+  </si>
+  <si>
+    <t>cheating clients</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>over-acting</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes</t>
+  </si>
+  <si>
+    <t>scandalizing polite society</t>
+  </si>
+  <si>
+    <t>wearing tights</t>
+  </si>
+  <si>
+    <t>coining sententious maxims</t>
+  </si>
+  <si>
+    <t>2.17%</t>
+  </si>
+  <si>
+    <t>making trains run on time</t>
+  </si>
+  <si>
+    <t>treating the sick with jokes</t>
+  </si>
+  <si>
+    <t>campaigning for social causes</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>making insipid musicals</t>
+  </si>
+  <si>
+    <t>terrorizing employees</t>
+  </si>
+  <si>
+    <t>reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>fighting the forces of good</t>
+  </si>
+  <si>
+    <t>2.50%</t>
+  </si>
+  <si>
+    <t>running gentleman's clubs</t>
+  </si>
+  <si>
+    <t>throwing fund-raisers for Parkinson's disease</t>
+  </si>
+  <si>
+    <t>starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>slashing victims</t>
+  </si>
+  <si>
+    <t>mass-producing cars</t>
+  </si>
+  <si>
+    <t>playing grungy music</t>
+  </si>
+  <si>
+    <t>spying for the enemy</t>
   </si>
   <si>
     <t>playing aggressive chess</t>
   </si>
   <si>
-    <t>1.83%</t>
-  </si>
-  <si>
-    <t>currying favour</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>squabbling on television</t>
-  </si>
-  <si>
-    <t>0.67%</t>
-  </si>
-  <si>
-    <t>playing drums</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>building rocket ships</t>
-  </si>
-  <si>
-    <t>1.50%</t>
-  </si>
-  <si>
-    <t>lecturing about climate change</t>
-  </si>
-  <si>
-    <t>0.17%</t>
-  </si>
-  <si>
-    <t>singing opera arias</t>
-  </si>
-  <si>
-    <t>cooking for friends</t>
-  </si>
-  <si>
-    <t>1.33%</t>
-  </si>
-  <si>
-    <t>rooting out moles</t>
-  </si>
-  <si>
-    <t>performing magic tricks</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>0.50%</t>
-  </si>
-  <si>
-    <t>posing for photographs</t>
-  </si>
-  <si>
-    <t>fighting for justice</t>
-  </si>
-  <si>
-    <t>escaping from reality</t>
-  </si>
-  <si>
-    <t>playing classical piano</t>
-  </si>
-  <si>
-    <t>explaining natural selection</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>conducting illicit affairs</t>
-  </si>
-  <si>
-    <t>2.17%</t>
-  </si>
-  <si>
-    <t>investigating alien abductions</t>
-  </si>
-  <si>
-    <t>spreading political gossip</t>
-  </si>
-  <si>
-    <t>hunting raccoons</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>eating donuts</t>
-  </si>
-  <si>
-    <t>seeking revenge</t>
+    <t>plotting with the enemy</t>
+  </si>
+  <si>
+    <t>reporting the news</t>
+  </si>
+  <si>
+    <t>winning Oscars</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>managing hedge funds</t>
   </si>
   <si>
     <t>writing plays</t>
   </si>
   <si>
-    <t>getting plastic surgery</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>licking frogs</t>
-  </si>
-  <si>
-    <t>developing cunning plans</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>defending the Earth</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>0.33%</t>
-  </si>
-  <si>
-    <t>playing the saxophone</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>retiring replicants</t>
-  </si>
-  <si>
-    <t>making fantasy movies</t>
-  </si>
-  <si>
-    <t>robbing banks</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>looking after children</t>
-  </si>
-  <si>
-    <t>suppressing minorities</t>
-  </si>
-  <si>
-    <t>2.00%</t>
-  </si>
-  <si>
-    <t>fighting the forces of good</t>
-  </si>
-  <si>
-    <t>manipulating ingenues</t>
-  </si>
-  <si>
-    <t>singing goofy songs</t>
-  </si>
-  <si>
-    <t>making suspense movies</t>
-  </si>
-  <si>
-    <t>promoting new technologies</t>
-  </si>
-  <si>
-    <t>promoting diversity</t>
-  </si>
-  <si>
-    <t>watching TV</t>
-  </si>
-  <si>
-    <t>singing parody songs</t>
-  </si>
-  <si>
-    <t>racking up marriages</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>playing pranks</t>
-  </si>
-  <si>
-    <t>chasing jellyfish</t>
-  </si>
-  <si>
-    <t>waxing a surfboard</t>
-  </si>
-  <si>
-    <t>2.67%</t>
-  </si>
-  <si>
-    <t>duelling acrobatically</t>
-  </si>
-  <si>
-    <t>causing political scandals</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
-  </si>
-  <si>
-    <t>keeping a diary</t>
-  </si>
-  <si>
-    <t>campaigning for world peace</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>escaping from water tanks</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>being a good neighbor</t>
-  </si>
-  <si>
-    <t>campaigning for democracy</t>
-  </si>
-  <si>
-    <t>fighting for civil rights</t>
-  </si>
-  <si>
-    <t>running a hardware company</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>drinking one's life away</t>
-  </si>
-  <si>
-    <t>writing modern poetry</t>
-  </si>
-  <si>
-    <t>tracking down criminals</t>
-  </si>
-  <si>
-    <t>competing in the Olympics</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise</t>
-  </si>
-  <si>
-    <t>ranting about politics</t>
-  </si>
-  <si>
-    <t>2.33%</t>
-  </si>
-  <si>
-    <t>writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>directing comedies</t>
-  </si>
-  <si>
-    <t>promoting enlightenment</t>
-  </si>
-  <si>
-    <t>chasing old women</t>
+    <t>playing the piano</t>
+  </si>
+  <si>
+    <t>flipping hamburgers</t>
   </si>
 </sst>
 </file>
@@ -393,7 +387,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="26.52734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.46875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.11328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.671875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="27.51953125" customWidth="true" bestFit="true"/>
@@ -421,7 +415,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3632483535208533</v>
+        <v>0.3863837617383973</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -432,38 +426,38 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3869963854940702</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.35742977963771205</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.28181066841513897</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.398038617168194</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.37727017801925467</v>
+        <v>0.25642827870882223</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -471,16 +465,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.10582711136986986</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3692329548492848</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -488,122 +482,122 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>0.17171257711517543</v>
+        <v>0.3547140565110239</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3379857331910993</v>
+        <v>0.37800812190670985</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1829910802605562</v>
+        <v>0.396034443511842</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3578860708787029</v>
+        <v>0.39643341581170827</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.24561886945997777</v>
+        <v>0.2679919805102755</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1485377181328393</v>
+        <v>0.22641123846002698</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0.35124847384441216</v>
+        <v>0.397797170944723</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3758318859679818</v>
+        <v>0.04300610344583877</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C15" t="n">
-        <v>0.21754500180445482</v>
+        <v>0.3986362336023031</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
@@ -614,629 +608,629 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>0.10955481392976968</v>
+        <v>0.027081742050988022</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>0.28208028963336546</v>
+        <v>0.3503621857192137</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3744703763438268</v>
+        <v>0.39651135003583876</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3272336745146442</v>
+        <v>0.29895961288004047</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C20" t="n">
-        <v>0.15001786335845557</v>
+        <v>0.3979105821949265</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3575640009250212</v>
+        <v>0.38358553416868124</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C22" t="n">
-        <v>0.39323420830568556</v>
+        <v>0.22828771889025923</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02054910638136892</v>
+        <v>0.3758937033634073</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C24" t="n">
-        <v>0.10838422155459841</v>
+        <v>0.01911516903941946</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C25" t="n">
-        <v>0.18272764378891734</v>
+        <v>0.31037317671428444</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C26" t="n">
-        <v>0.125972138380705</v>
+        <v>0.25838581248905074</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C27" t="n">
-        <v>0.34864742113754804</v>
+        <v>0.3837608165878673</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2555528735033412</v>
+        <v>0.044749506399134935</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C29" t="n">
-        <v>0.38758224940174235</v>
+        <v>0.25343820938362</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1401312913471224</v>
+        <v>0.09013781878784476</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31" t="n">
-        <v>0.398870085593988</v>
+        <v>0.11535883809016581</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3772713120275205</v>
+        <v>0.35781988687409183</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2294950109800361</v>
+        <v>0.0694089654199822</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3768005491640311</v>
+        <v>0.10140168156392255</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C35" t="n">
-        <v>0.348411295082051</v>
+        <v>0.3567709563863824</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C36" t="n">
-        <v>0.39513497117409424</v>
+        <v>0.08564445170777242</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2917330514422615</v>
+        <v>0.37190522399668935</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2552749032833688</v>
+        <v>0.37914755644266107</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="n">
-        <v>0.37650302905421434</v>
+        <v>0.3190684495855464</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3694681557156363</v>
+        <v>0.3523339175005996</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C41" t="n">
-        <v>0.39878863448111457</v>
+        <v>0.16228983711835585</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C42" t="n">
-        <v>0.17410867951631673</v>
+        <v>0.2693535168142384</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1734483661794449</v>
+        <v>0.11756350625718182</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>0.09094513185653112</v>
+        <v>0.3944437126070948</v>
       </c>
       <c r="D44" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3928064975897786</v>
+        <v>0.3964457780597664</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0.32996743207774204</v>
+        <v>0.02612127109224119</v>
       </c>
       <c r="D46" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3244557946786167</v>
+        <v>0.3354473160457335</v>
       </c>
       <c r="D47" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3987651969101028</v>
+        <v>0.3982955189945887</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C49" t="n">
-        <v>0.15751296749488447</v>
+        <v>0.37255105084783036</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>0.34466156810723464</v>
+        <v>0.38537390202133964</v>
       </c>
       <c r="D50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3761877092524131</v>
+        <v>0.3985438239206749</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3970126928670319</v>
+        <v>0.38155890822715416</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" t="n">
-        <v>0.22631978481245238</v>
+        <v>0.1538945549104894</v>
       </c>
       <c r="D53" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>0.38814898926188884</v>
+        <v>0.3534727170458984</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C55" t="n">
-        <v>0.38629094172851625</v>
+        <v>0.22650226960370276</v>
       </c>
       <c r="D55" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3951992047540464</v>
+        <v>0.17291663060945547</v>
       </c>
       <c r="D56" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3961007506691909</v>
+        <v>0.30825242110059536</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C58" t="n">
-        <v>0.37971688235283807</v>
+        <v>0.15987279696218623</v>
       </c>
       <c r="D58" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2380360235253691</v>
+        <v>0.29759479399283345</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C60" t="n">
-        <v>0.21298759231827843</v>
+        <v>0.3788923347808809</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -1247,10 +1241,10 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>0.22314522221429986</v>
+        <v>0.3294493532524025</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -1258,83 +1252,83 @@
         <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C62" t="n">
-        <v>0.39844459095343393</v>
+        <v>0.3942102509561094</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3386386114255844</v>
+        <v>0.28736157172345067</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3940003764525356</v>
+        <v>0.39684657712869487</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C65" t="n">
-        <v>0.38433606946417076</v>
+        <v>0.2537529375659589</v>
       </c>
       <c r="D65" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C66" t="n">
-        <v>0.37461023524452924</v>
+        <v>0.16742524874469775</v>
       </c>
       <c r="D66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C67" t="n">
-        <v>0.39876945347592124</v>
+        <v>0.3967050818775878</v>
       </c>
       <c r="D67" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -1342,139 +1336,139 @@
         <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68" t="n">
-        <v>0.32854792293054746</v>
+        <v>0.35877343467119677</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C69" t="n">
-        <v>0.29322936403143035</v>
+        <v>0.39668451686278194</v>
       </c>
       <c r="D69" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3858105885038554</v>
+        <v>0.28653914070578496</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
       </c>
       <c r="C71" t="n">
-        <v>0.12341153808180898</v>
+        <v>0.36095154293527826</v>
       </c>
       <c r="D71" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C72" t="n">
-        <v>0.30736208902661166</v>
+        <v>0.3615524718337509</v>
       </c>
       <c r="D72" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C73" t="n">
-        <v>0.25353632299324314</v>
+        <v>0.3184121954154563</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3937038772436473</v>
+        <v>0.3525975037731959</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C75" t="n">
-        <v>0.38936557428245544</v>
+        <v>0.19375907253879454</v>
       </c>
       <c r="D75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0027144916153915054</v>
+        <v>0.27049627195296605</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="B77" t="s">
         <v>13</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2668200124200558</v>
+        <v>0.39553765448497286</v>
       </c>
       <c r="D77" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
@@ -1482,195 +1476,195 @@
         <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3853172013932575</v>
+        <v>0.13056689350854753</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C79" t="n">
-        <v>0.25309021160163775</v>
+        <v>0.28091707206024885</v>
       </c>
       <c r="D79" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C80" t="n">
-        <v>0.24452234730701164</v>
+        <v>0.12564794808364846</v>
       </c>
       <c r="D80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>0.13478299563108817</v>
+        <v>0.36767022132026456</v>
       </c>
       <c r="D81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
       <c r="C82" t="n">
-        <v>0.38664520716084383</v>
+        <v>0.07275606856784177</v>
       </c>
       <c r="D82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
         <v>13</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1406965530700153</v>
+        <v>0.3471120590161693</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C84" t="n">
-        <v>0.18128491238216302</v>
+        <v>0.38357108312535226</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3629805910572497</v>
+        <v>0.35079326890814816</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3927947680277131</v>
+        <v>0.22125799636941015</v>
       </c>
       <c r="D86" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C87" t="n">
-        <v>0.308832328952356</v>
+        <v>0.2976465951144725</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2694417539497845</v>
+        <v>0.3031272964861666</v>
       </c>
       <c r="D88" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C89" t="n">
-        <v>0.352694982601627</v>
+        <v>0.30386848139994405</v>
       </c>
       <c r="D89" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C90" t="n">
-        <v>0.10383337906939706</v>
+        <v>0.3912337131463372</v>
       </c>
       <c r="D90" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B91" t="s">
         <v>13</v>
       </c>
       <c r="C91" t="n">
-        <v>0.26877339198796696</v>
+        <v>0.3300677323175768</v>
       </c>
       <c r="D91" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis60.xlsx
+++ b/Analysis60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="110">
   <si>
     <t>Research Activity</t>
   </si>
@@ -26,304 +26,322 @@
     <t>Percentage Distribution</t>
   </si>
   <si>
-    <t>writing hawkish memos</t>
+    <t>winning tennis grand slams</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>singing melancholy songs</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>organizing prison breaks</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>1.17%</t>
+  </si>
+  <si>
+    <t>offering blessings</t>
+  </si>
+  <si>
+    <t>1.83%</t>
+  </si>
+  <si>
+    <t>interviewing politicians</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>running a smuggling business</t>
+  </si>
+  <si>
+    <t>playing baseball</t>
+  </si>
+  <si>
+    <t>0.67%</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>2.33%</t>
+  </si>
+  <si>
+    <t>falling for prank calls</t>
+  </si>
+  <si>
+    <t>2.17%</t>
+  </si>
+  <si>
+    <t>eluding electronic ghosts</t>
+  </si>
+  <si>
+    <t>2.50%</t>
+  </si>
+  <si>
+    <t>arguing against capitalism</t>
+  </si>
+  <si>
+    <t>0.33%</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>fighting for democracy</t>
+  </si>
+  <si>
+    <t>writing crime stories</t>
+  </si>
+  <si>
+    <t>hiding from the public</t>
+  </si>
+  <si>
+    <t>promoting greed</t>
+  </si>
+  <si>
+    <t>pushing shoddy merchandise</t>
+  </si>
+  <si>
+    <t>proving math theorems</t>
+  </si>
+  <si>
+    <t>studying mathematics</t>
+  </si>
+  <si>
+    <t>1.33%</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>0.17%</t>
+  </si>
+  <si>
+    <t>posing for photographs</t>
+  </si>
+  <si>
+    <t>0.83%</t>
+  </si>
+  <si>
+    <t>promoting world peace</t>
+  </si>
+  <si>
+    <t>cursing at kitchen staff</t>
+  </si>
+  <si>
+    <t>throwing fund-raisers for Parkinson's disease</t>
+  </si>
+  <si>
+    <t>currying favour</t>
+  </si>
+  <si>
+    <t>singing parody songs</t>
+  </si>
+  <si>
+    <t>wooing potential brides</t>
+  </si>
+  <si>
+    <t>making new wave movies</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>1.00%</t>
+  </si>
+  <si>
+    <t>laughing maniacally</t>
+  </si>
+  <si>
+    <t>tracking down criminals</t>
+  </si>
+  <si>
+    <t>performing physical therapy</t>
+  </si>
+  <si>
+    <t>arresting criminals</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>running a frontier town</t>
+  </si>
+  <si>
+    <t>1.50%</t>
+  </si>
+  <si>
+    <t>studying icons</t>
+  </si>
+  <si>
     <t>2.00%</t>
   </si>
   <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>making dunk shots</t>
+  </si>
+  <si>
+    <t>0.50%</t>
+  </si>
+  <si>
+    <t>directing action movies</t>
+  </si>
+  <si>
+    <t>promoting feminism</t>
+  </si>
+  <si>
+    <t>shouting in Hollywood movies</t>
+  </si>
+  <si>
+    <t>running a clandestine spy organization</t>
+  </si>
+  <si>
+    <t>attending cotillion balls</t>
+  </si>
+  <si>
+    <t>stealing lunch money</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>writing about history</t>
+  </si>
+  <si>
+    <t>collecting treasures</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>bending spoons</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>eluding the public gaze</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>investing in real estate</t>
+  </si>
+  <si>
+    <t>carrying secret plans</t>
+  </si>
+  <si>
+    <t>writing cook books</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>campaigning for democracy</t>
+  </si>
+  <si>
+    <t>eating dinosaur ribs</t>
+  </si>
+  <si>
+    <t>2.67%</t>
+  </si>
+  <si>
+    <t>telling epic tales</t>
+  </si>
+  <si>
+    <t>killing monsters</t>
+  </si>
+  <si>
+    <t>leaking state secrets</t>
+  </si>
+  <si>
+    <t>painting colorful pictures</t>
+  </si>
+  <si>
+    <t>fighting the resistance</t>
+  </si>
+  <si>
+    <t>directing movies</t>
+  </si>
+  <si>
+    <t>looking after mother</t>
+  </si>
+  <si>
+    <t>2.83%</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>partying on yachts</t>
+  </si>
+  <si>
+    <t>making antisemitic remarks</t>
+  </si>
+  <si>
+    <t>directing Hollywood movies</t>
+  </si>
+  <si>
+    <t>struggling with modern times</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes</t>
+  </si>
+  <si>
+    <t>fighting for civil rights</t>
+  </si>
+  <si>
+    <t>inventing time machines</t>
+  </si>
+  <si>
+    <t>studying science</t>
+  </si>
+  <si>
+    <t>running a communist country</t>
+  </si>
+  <si>
+    <t>standing up to bullies</t>
+  </si>
+  <si>
     <t>wielding political power</t>
   </si>
   <si>
-    <t>0.50%</t>
-  </si>
-  <si>
-    <t>tracking down fugitives</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>1.00%</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>1.33%</t>
-  </si>
-  <si>
-    <t>promoting nerd culture</t>
-  </si>
-  <si>
-    <t>leading armies into battle</t>
-  </si>
-  <si>
-    <t>2.17%</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>0.33%</t>
-  </si>
-  <si>
-    <t>promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>2.50%</t>
-  </si>
-  <si>
-    <t>singing to teenagers</t>
-  </si>
-  <si>
-    <t>1.50%</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>0.83%</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>0.67%</t>
-  </si>
-  <si>
-    <t>interviewing politicians</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
-  </si>
-  <si>
-    <t>1.17%</t>
-  </si>
-  <si>
-    <t>making lewd remarks</t>
-  </si>
-  <si>
-    <t>escaping from handcuffs</t>
-  </si>
-  <si>
-    <t>interpreting evidence</t>
-  </si>
-  <si>
-    <t>0.17%</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>cheating clients</t>
-  </si>
-  <si>
-    <t>following the money</t>
-  </si>
-  <si>
-    <t>writing cook books</t>
-  </si>
-  <si>
-    <t>running a large metropolitan city</t>
-  </si>
-  <si>
-    <t>1.83%</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>promoting Catholic values</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes</t>
-  </si>
-  <si>
-    <t>incurring debts</t>
-  </si>
-  <si>
-    <t>gyrating hips</t>
-  </si>
-  <si>
-    <t>monetizing celebrity status</t>
-  </si>
-  <si>
-    <t>bullying schoolkids</t>
-  </si>
-  <si>
-    <t>hosting anodyne game shows</t>
-  </si>
-  <si>
-    <t>singing jazz songs</t>
-  </si>
-  <si>
-    <t>making unauthorized sex tapes</t>
-  </si>
-  <si>
-    <t>womanizing</t>
-  </si>
-  <si>
-    <t>1.67%</t>
-  </si>
-  <si>
-    <t>investing money</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
+    <t>recording history</t>
+  </si>
+  <si>
+    <t>avoiding growing old</t>
+  </si>
+  <si>
+    <t>launching foreign wars</t>
+  </si>
+  <si>
+    <t>making strategic decisions</t>
   </si>
   <si>
     <t>fawning on the boss</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>hunting monsters</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>carving magnificent statues</t>
-  </si>
-  <si>
-    <t>studying gorillas up close</t>
-  </si>
-  <si>
-    <t>riding a bicycle</t>
-  </si>
-  <si>
-    <t>evading mercenaries</t>
-  </si>
-  <si>
-    <t>convicting criminals</t>
-  </si>
-  <si>
-    <t>doing raunchy stage acts</t>
-  </si>
-  <si>
-    <t>causing mayhem</t>
-  </si>
-  <si>
-    <t>making cartoons</t>
-  </si>
-  <si>
-    <t>writing short stories</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>testing new technologies</t>
-  </si>
-  <si>
-    <t>undermining authority</t>
-  </si>
-  <si>
-    <t>studying magic</t>
-  </si>
-  <si>
-    <t>running a bureaucracy</t>
-  </si>
-  <si>
-    <t>2.33%</t>
-  </si>
-  <si>
-    <t>having meltdowns in public</t>
-  </si>
-  <si>
-    <t>performing kung-fu moves</t>
-  </si>
-  <si>
-    <t>postulating bizarre theories</t>
-  </si>
-  <si>
-    <t>flipping hamburgers</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>suppressing violent urges</t>
-  </si>
-  <si>
-    <t>winning swimming competitions</t>
-  </si>
-  <si>
-    <t>smuggling contraband</t>
-  </si>
-  <si>
-    <t>warning about totalitarianism</t>
-  </si>
-  <si>
-    <t>eluding hunters</t>
-  </si>
-  <si>
-    <t>nursing a messiah complex</t>
-  </si>
-  <si>
-    <t>winning tennis tournaments</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>biting opponents</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>phoning home</t>
-  </si>
-  <si>
-    <t>designing computer systems</t>
-  </si>
-  <si>
-    <t>performing office chores</t>
-  </si>
-  <si>
-    <t>spying on girls</t>
   </si>
 </sst>
 </file>
@@ -381,7 +399,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.5625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.19921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.69921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.85546875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="28.9375" customWidth="true" bestFit="true"/>
@@ -409,7 +427,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.38142171924784907</v>
+        <v>0.12595818430986488</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -423,7 +441,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18057681290280642</v>
+        <v>0.3972697862124133</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -437,38 +455,38 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.13711802846929447</v>
+        <v>0.23930843797973614</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3583871245600255</v>
+        <v>0.33043239246878353</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>0.36203289090776847</v>
+        <v>0.3846557991881412</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -476,13 +494,13 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>0.39650936256302616</v>
+        <v>0.016268449887965324</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -490,10 +508,10 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>0.39892322728347906</v>
+        <v>0.355067957069448</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -507,7 +525,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09163032893503385</v>
+        <v>0.3629721515028173</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -515,167 +533,167 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03562412846183403</v>
+        <v>0.3881920050880104</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.39256756705348744</v>
+        <v>0.39894121544583866</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3989174191514278</v>
+        <v>0.398073871635061</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0.36294986075115815</v>
+        <v>0.2162527950995024</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3909944148385279</v>
+        <v>0.25956742400820404</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.38683920392395926</v>
+        <v>0.37193605195570767</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.27177746133622954</v>
+        <v>0.20624288115648626</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>0.38234154759657735</v>
+        <v>0.37701788685636634</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>0.22646832011932105</v>
+        <v>0.2912855643570994</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>0.38058321580026366</v>
+        <v>0.10422531604963715</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3607500072123489</v>
+        <v>0.03572907444066199</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>0.29890576772674404</v>
+        <v>0.396437709924028</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -683,296 +701,296 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>0.067010135600322</v>
+        <v>0.2862319198278417</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>0.23641390326342546</v>
+        <v>0.03975903357124083</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>0.24215471820560297</v>
+        <v>0.19127568124769512</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>0.39629997850158166</v>
+        <v>0.3871350064343792</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3369560251412239</v>
+        <v>0.27664352918231355</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3203978047909483</v>
+        <v>0.39482866998616745</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>0.11610648703621651</v>
+        <v>0.35202420042844407</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C29" t="n">
-        <v>0.19877788726787773</v>
+        <v>0.008865790311189718</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3271010157473811</v>
+        <v>0.019246520938800808</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>0.37193706294185463</v>
+        <v>0.2668022969007645</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1994364083542234</v>
+        <v>0.38774781753291415</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2686695646034928</v>
+        <v>0.3238667235359201</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="n">
-        <v>0.26222839321887237</v>
+        <v>0.0931392971516015</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="n">
-        <v>0.19812000763440268</v>
+        <v>0.2177453415489353</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C36" t="n">
-        <v>0.39890399933676357</v>
+        <v>0.22753854625457695</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2462620856067288</v>
+        <v>0.3133899713473861</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C38" t="n">
-        <v>0.39482691721771307</v>
+        <v>0.3889338996764737</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C39" t="n">
-        <v>0.24104026869929404</v>
+        <v>0.37294347957357676</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C40" t="n">
-        <v>0.36683580556858963</v>
+        <v>0.3675568601856765</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.33621086458967087</v>
+        <v>0.302995379462244</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.23261564732299378</v>
+      </c>
+      <c r="D42" t="s">
         <v>61</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.394243841459758</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -983,10 +1001,10 @@
         <v>5</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2398402226917691</v>
+        <v>0.24507996022147618</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -994,13 +1012,13 @@
         <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3897832287026928</v>
+        <v>0.39874767006788164</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -1008,13 +1026,13 @@
         <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C45" t="n">
-        <v>0.39881182958149847</v>
+        <v>0.306208609548292</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -1025,10 +1043,10 @@
         <v>10</v>
       </c>
       <c r="C46" t="n">
-        <v>0.37600644426686863</v>
+        <v>0.35998918001355673</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47">
@@ -1039,469 +1057,469 @@
         <v>10</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1817807330989482</v>
+        <v>0.3520075254602171</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3917673955019822</v>
+        <v>0.33961669297011093</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" t="n">
-        <v>0.20216886004865292</v>
+        <v>0.3952357726576465</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C50" t="n">
-        <v>0.12950161274147207</v>
+        <v>0.3361855087585367</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C51" t="n">
-        <v>0.18373234245537162</v>
+        <v>0.13325455902856118</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C52" t="n">
-        <v>0.13088021959336116</v>
+        <v>0.27567492696690576</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C53" t="n">
-        <v>0.37895698608863837</v>
+        <v>0.3693279581110398</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>0.018075187541506037</v>
+        <v>0.2337966980910396</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C55" t="n">
-        <v>0.06747111040008061</v>
+        <v>0.09174349854165641</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C56" t="n">
-        <v>0.28497276756830603</v>
+        <v>0.31682315076139034</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1733789848796418</v>
+        <v>0.016444575661116612</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08757559779418933</v>
+        <v>0.04384056134209011</v>
       </c>
       <c r="D58" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3471492677257574</v>
+        <v>0.17586824151225622</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3152238810313809</v>
+        <v>0.3505743409960818</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>0.14225306389776468</v>
+        <v>0.2364343658014308</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3680248965952233</v>
+        <v>0.10336502880306989</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C63" t="n">
-        <v>0.35962897307352876</v>
+        <v>0.3977063965150597</v>
       </c>
       <c r="D63" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C64" t="n">
-        <v>0.35977410346597244</v>
+        <v>0.39523387646843167</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
       </c>
       <c r="C65" t="n">
-        <v>0.37740471489177413</v>
+        <v>0.3582243442445101</v>
       </c>
       <c r="D65" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C66" t="n">
-        <v>0.11942249562788786</v>
+        <v>0.3375662272843016</v>
       </c>
       <c r="D66" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
       </c>
       <c r="C67" t="n">
-        <v>0.28591376446100014</v>
+        <v>0.38251696953328973</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
       </c>
       <c r="C68" t="n">
-        <v>0.39114978580462134</v>
+        <v>0.35695995622056986</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C69" t="n">
-        <v>0.046295318797607385</v>
+        <v>0.1549507309593199</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
       </c>
       <c r="C70" t="n">
-        <v>0.06462692856753464</v>
+        <v>0.39885176790444504</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C71" t="n">
-        <v>0.36099880265667084</v>
+        <v>0.34930907198944805</v>
       </c>
       <c r="D71" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
       </c>
       <c r="C72" t="n">
-        <v>0.39894173934376337</v>
+        <v>0.08840947397780162</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3159464362245141</v>
+        <v>0.08643300531824942</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C74" t="n">
-        <v>0.05762839992324523</v>
+        <v>0.34985538369620567</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
       <c r="C75" t="n">
-        <v>0.11394913132440934</v>
+        <v>0.3970180782372392</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3918248837854365</v>
+        <v>0.2516774262747933</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3842162249842369</v>
+        <v>0.06802328363307703</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C78" t="n">
-        <v>0.33901414586938916</v>
+        <v>0.16961881265689677</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C79" t="n">
-        <v>0.198268298341954</v>
+        <v>0.36332314150971007</v>
       </c>
       <c r="D79" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C80" t="n">
-        <v>0.19271765310962277</v>
+        <v>0.36984845375975406</v>
       </c>
       <c r="D80" t="s">
         <v>40</v>
@@ -1509,156 +1527,156 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C81" t="n">
-        <v>0.34026576744703346</v>
+        <v>0.3789451762167261</v>
       </c>
       <c r="D81" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C82" t="n">
-        <v>0.10003793281260928</v>
+        <v>0.37096606788966524</v>
       </c>
       <c r="D82" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C83" t="n">
-        <v>0.39135209102041874</v>
+        <v>0.22810229803047416</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C84" t="n">
-        <v>0.36730401472530644</v>
+        <v>0.3967966067462607</v>
       </c>
       <c r="D84" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C85" t="n">
-        <v>0.16820324099277</v>
+        <v>0.3980507594268624</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3880990863689567</v>
+        <v>0.3878431539707111</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C87" t="n">
-        <v>0.398238206143044</v>
+        <v>0.3984040023830642</v>
       </c>
       <c r="D87" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="B88" t="s">
         <v>10</v>
       </c>
       <c r="C88" t="n">
-        <v>0.39886728293060375</v>
+        <v>0.02525955411905872</v>
       </c>
       <c r="D88" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3398198840665538</v>
+        <v>0.3523693782090705</v>
       </c>
       <c r="D89" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B90" t="s">
         <v>10</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1441603937747287</v>
+        <v>0.281475366572467</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3329976458184782</v>
+        <v>0.1372838890886729</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis60.xlsx
+++ b/Analysis60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="105">
   <si>
     <t>Research Activity</t>
   </si>
@@ -26,310 +26,307 @@
     <t>Percentage Distribution</t>
   </si>
   <si>
+    <t>finding clues</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>1.00%</t>
+  </si>
+  <si>
+    <t>plotting terrorist outrages</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>2.00%</t>
+  </si>
+  <si>
+    <t>causing mayhem</t>
+  </si>
+  <si>
+    <t>1.17%</t>
+  </si>
+  <si>
+    <t>inventing superheroes</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>0.33%</t>
+  </si>
+  <si>
+    <t>singing melancholy songs</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>fighting for civil rights</t>
+  </si>
+  <si>
+    <t>1.33%</t>
+  </si>
+  <si>
+    <t>seducing kings</t>
+  </si>
+  <si>
+    <t>advising on foreign affairs</t>
+  </si>
+  <si>
+    <t>popping amphetamines</t>
+  </si>
+  <si>
+    <t>2.17%</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>0.67%</t>
+  </si>
+  <si>
+    <t>obsessively washing hands</t>
+  </si>
+  <si>
+    <t>2.83%</t>
+  </si>
+  <si>
+    <t>investing money</t>
+  </si>
+  <si>
+    <t>tending the garden</t>
+  </si>
+  <si>
+    <t>0.83%</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>1.83%</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>1.50%</t>
+  </si>
+  <si>
+    <t>running races</t>
+  </si>
+  <si>
+    <t>writing short stories</t>
+  </si>
+  <si>
+    <t>saving money</t>
+  </si>
+  <si>
+    <t>breaking records</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>raising new-age children</t>
+  </si>
+  <si>
+    <t>attacking neighbors</t>
+  </si>
+  <si>
+    <t>starring in sit-coms</t>
+  </si>
+  <si>
+    <t>organizing mass suicides</t>
+  </si>
+  <si>
+    <t>dreaming the day away</t>
+  </si>
+  <si>
+    <t>playing the saxophone</t>
+  </si>
+  <si>
+    <t>pretending to fight</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes</t>
+  </si>
+  <si>
+    <t>playing tough guys</t>
+  </si>
+  <si>
+    <t>studying dinosaurs</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>talking up the economy</t>
+  </si>
+  <si>
+    <t>playing rock music</t>
+  </si>
+  <si>
+    <t>tilting at windmills</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>spying on girls</t>
+  </si>
+  <si>
+    <t>rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>picking pockets</t>
+  </si>
+  <si>
+    <t>inventing new technologies</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>0.50%</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>0.17%</t>
+  </si>
+  <si>
+    <t>flaunting buttocks</t>
+  </si>
+  <si>
+    <t>healing the sick</t>
+  </si>
+  <si>
+    <t>avoiding taxes</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>recruiting disaffected youths</t>
+  </si>
+  <si>
+    <t>smoking Laramie Hi-Tars</t>
+  </si>
+  <si>
+    <t>performing serious acting</t>
+  </si>
+  <si>
+    <t>leading armies into battle</t>
+  </si>
+  <si>
     <t>writing pop songs</t>
   </si>
   <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>1.33%</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>1.17%</t>
-  </si>
-  <si>
-    <t>giving investment advice</t>
-  </si>
-  <si>
-    <t>0.83%</t>
-  </si>
-  <si>
-    <t>directing animated films</t>
+    <t>singing experimental songs</t>
+  </si>
+  <si>
+    <t>fighting guerilla wars</t>
+  </si>
+  <si>
+    <t>interviewing celebrities</t>
+  </si>
+  <si>
+    <t>solving riddles</t>
+  </si>
+  <si>
+    <t>performing magic tricks</t>
+  </si>
+  <si>
+    <t>singing country music</t>
+  </si>
+  <si>
+    <t>starring in indy movies</t>
+  </si>
+  <si>
+    <t>promoting racial harmony</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>fawning on the boss</t>
+  </si>
+  <si>
+    <t>interpreting evidence</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
   </si>
   <si>
     <t>running a clandestine spy organization</t>
   </si>
   <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>0.17%</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>0.67%</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>1.00%</t>
-  </si>
-  <si>
-    <t>running a communist country</t>
-  </si>
-  <si>
-    <t>1.67%</t>
-  </si>
-  <si>
-    <t>finding clues</t>
-  </si>
-  <si>
-    <t>1.83%</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>inventing time machines</t>
-  </si>
-  <si>
-    <t>surviving fatwas</t>
-  </si>
-  <si>
-    <t>1.50%</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>0.50%</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>giving self-help lectures</t>
-  </si>
-  <si>
-    <t>0.33%</t>
-  </si>
-  <si>
-    <t>falling gracefully</t>
-  </si>
-  <si>
-    <t>2.00%</t>
-  </si>
-  <si>
-    <t>singing protest songs</t>
-  </si>
-  <si>
-    <t>chasing flappers</t>
-  </si>
-  <si>
-    <t>2.83%</t>
-  </si>
-  <si>
-    <t>eating donuts</t>
-  </si>
-  <si>
-    <t>2.67%</t>
-  </si>
-  <si>
-    <t>maintaining a secret identity</t>
-  </si>
-  <si>
-    <t>proving math theorems</t>
+    <t>changing privacy settings</t>
+  </si>
+  <si>
+    <t>designing modern buildings</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>traveling in time</t>
+  </si>
+  <si>
+    <t>offering blessings</t>
+  </si>
+  <si>
+    <t>seeking revenge</t>
+  </si>
+  <si>
+    <t>promoting greed</t>
+  </si>
+  <si>
+    <t>playing grungy music</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>instilling fear in the enemy</t>
   </si>
   <si>
     <t>moaning about men</t>
   </si>
   <si>
-    <t>kicking ass</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>surviving large-scale floods</t>
-  </si>
-  <si>
-    <t>promoting Darwinism</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>exploring the new world</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes</t>
-  </si>
-  <si>
-    <t>composing classical music</t>
-  </si>
-  <si>
-    <t>currying favour</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>2.33%</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>plagiarizing political speeches</t>
-  </si>
-  <si>
-    <t>preventing crime</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>making vulgar jokes</t>
-  </si>
-  <si>
-    <t>tossing coins</t>
-  </si>
-  <si>
-    <t>amassing nuclear weapons</t>
-  </si>
-  <si>
-    <t>rescuing hostages</t>
-  </si>
-  <si>
-    <t>plotting election strategies</t>
-  </si>
-  <si>
-    <t>disposing of unwanted jewelry</t>
-  </si>
-  <si>
-    <t>advising on foreign affairs</t>
-  </si>
-  <si>
-    <t>letting one's hair down</t>
-  </si>
-  <si>
-    <t>breaking records</t>
-  </si>
-  <si>
-    <t>racing fast cars</t>
-  </si>
-  <si>
-    <t>directing science fiction movies</t>
-  </si>
-  <si>
-    <t>cheating clients</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>over-acting</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes</t>
-  </si>
-  <si>
-    <t>scandalizing polite society</t>
-  </si>
-  <si>
-    <t>wearing tights</t>
-  </si>
-  <si>
-    <t>coining sententious maxims</t>
-  </si>
-  <si>
-    <t>2.17%</t>
-  </si>
-  <si>
-    <t>making trains run on time</t>
-  </si>
-  <si>
-    <t>treating the sick with jokes</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise</t>
-  </si>
-  <si>
-    <t>making insipid musicals</t>
-  </si>
-  <si>
-    <t>terrorizing employees</t>
-  </si>
-  <si>
-    <t>reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>fighting the forces of good</t>
-  </si>
-  <si>
-    <t>2.50%</t>
-  </si>
-  <si>
-    <t>running gentleman's clubs</t>
-  </si>
-  <si>
-    <t>throwing fund-raisers for Parkinson's disease</t>
-  </si>
-  <si>
-    <t>starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>slashing victims</t>
-  </si>
-  <si>
-    <t>mass-producing cars</t>
-  </si>
-  <si>
-    <t>playing grungy music</t>
-  </si>
-  <si>
-    <t>spying for the enemy</t>
-  </si>
-  <si>
-    <t>playing aggressive chess</t>
-  </si>
-  <si>
-    <t>plotting with the enemy</t>
-  </si>
-  <si>
-    <t>reporting the news</t>
-  </si>
-  <si>
-    <t>winning Oscars</t>
-  </si>
-  <si>
-    <t>writing poetry</t>
+    <t>making money</t>
   </si>
   <si>
     <t>managing hedge funds</t>
   </si>
   <si>
-    <t>writing plays</t>
-  </si>
-  <si>
-    <t>playing the piano</t>
-  </si>
-  <si>
-    <t>flipping hamburgers</t>
+    <t>hosting radio shows</t>
+  </si>
+  <si>
+    <t>hacking into corporate mainframes</t>
+  </si>
+  <si>
+    <t>chasing a great white whale</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
+  </si>
+  <si>
+    <t>selling self-help books</t>
+  </si>
+  <si>
+    <t>writing comedy</t>
   </si>
 </sst>
 </file>
@@ -387,7 +384,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.46875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.11328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.671875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="27.51953125" customWidth="true" bestFit="true"/>
@@ -415,7 +412,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3863837617383973</v>
+        <v>0.24228210036691383</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -426,83 +423,83 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3869963854940702</v>
+        <v>0.36656261356977005</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.28181066841513897</v>
+        <v>0.39764216021167437</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>0.25642827870882223</v>
+        <v>0.09843611305745409</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>0.10582711136986986</v>
+        <v>0.34767939399457937</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3547140565110239</v>
+        <v>0.344664760273954</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.37800812190670985</v>
+        <v>0.13874801528836028</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -510,41 +507,41 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.396034443511842</v>
+        <v>0.2897221291537971</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3961369227369662</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.39643341581170827</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2633822858005354</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2679919805102755</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -552,27 +549,27 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>0.22641123846002698</v>
+        <v>0.30501431411683666</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>0.397797170944723</v>
+        <v>0.22726003349977178</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -580,276 +577,276 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04300610344583877</v>
+        <v>0.18838680017726417</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3986362336023031</v>
+        <v>0.2867330035665431</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.027081742050988022</v>
+        <v>0.36374233958108004</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3503621857192137</v>
+        <v>0.386935782767423</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>0.39651135003583876</v>
+        <v>0.20035774460872965</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>0.29895961288004047</v>
+        <v>0.24854882917753754</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3979105821949265</v>
+        <v>0.256281652265005</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>0.38358553416868124</v>
+        <v>0.2707769265091831</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>0.22828771889025923</v>
+        <v>0.3971023618529513</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3758937033634073</v>
+        <v>0.37525182696752446</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.34148596832552175</v>
+      </c>
+      <c r="D24" t="s">
         <v>16</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.01911516903941946</v>
-      </c>
-      <c r="D24" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
       </c>
       <c r="C25" t="n">
-        <v>0.31037317671428444</v>
+        <v>0.3927618892899599</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C26" t="n">
-        <v>0.25838581248905074</v>
+        <v>0.3518446644221112</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3837608165878673</v>
+        <v>0.21281288922750766</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>0.044749506399134935</v>
+        <v>0.32076847652760154</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>0.25343820938362</v>
+        <v>0.2804825185576571</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09013781878784476</v>
+        <v>0.3479804657375206</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
-        <v>0.11535883809016581</v>
+        <v>0.13602636903729678</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.3041316218979701</v>
+      </c>
+      <c r="D32" t="s">
         <v>24</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.35781988687409183</v>
-      </c>
-      <c r="D32" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0694089654199822</v>
+        <v>0.1668409337906458</v>
       </c>
       <c r="D33" t="s">
         <v>29</v>
@@ -857,321 +854,321 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C34" t="n">
-        <v>0.10140168156392255</v>
+        <v>0.3232514450336708</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3567709563863824</v>
+        <v>0.24127012821438512</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C36" t="n">
-        <v>0.08564445170777242</v>
+        <v>0.35701016495149046</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C37" t="n">
-        <v>0.37190522399668935</v>
+        <v>0.37636750784667694</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C38" t="n">
-        <v>0.37914755644266107</v>
+        <v>0.36506830206031804</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3190684495855464</v>
+        <v>0.38199723910408373</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3523339175005996</v>
+        <v>0.3989413358468263</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.16228983711835585</v>
+        <v>0.3025482275702432</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2693535168142384</v>
+        <v>0.2699038176260999</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C43" t="n">
-        <v>0.11756350625718182</v>
+        <v>0.3093740039831641</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3944437126070948</v>
+        <v>0.1425874906585239</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3964457780597664</v>
+        <v>0.06351918303584012</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C46" t="n">
-        <v>0.02612127109224119</v>
+        <v>0.36990103673747027</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3354473160457335</v>
+        <v>0.03391154316285383</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.388467465191253</v>
+      </c>
+      <c r="D48" t="s">
         <v>16</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.3982955189945887</v>
-      </c>
-      <c r="D48" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C49" t="n">
-        <v>0.37255105084783036</v>
+        <v>0.37342677063268503</v>
       </c>
       <c r="D49" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C50" t="n">
-        <v>0.38537390202133964</v>
+        <v>0.2970562729779072</v>
       </c>
       <c r="D50" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3985438239206749</v>
+        <v>0.398936549378574</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C52" t="n">
-        <v>0.38155890822715416</v>
+        <v>0.15328978725341622</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1538945549104894</v>
+        <v>0.39545315400757886</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3534727170458984</v>
+        <v>0.1535010079770504</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C55" t="n">
-        <v>0.22650226960370276</v>
+        <v>0.31309487456087176</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C56" t="n">
-        <v>0.17291663060945547</v>
+        <v>0.1331050545335464</v>
       </c>
       <c r="D56" t="s">
         <v>29</v>
@@ -1179,324 +1176,324 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>0.30825242110059536</v>
+        <v>0.33214295522338233</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C58" t="n">
-        <v>0.15987279696218623</v>
+        <v>0.39804043704055964</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C59" t="n">
-        <v>0.29759479399283345</v>
+        <v>0.3231915187003017</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3788923347808809</v>
+        <v>0.105338055025876</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3294493532524025</v>
+        <v>0.3530058273729041</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3942102509561094</v>
+        <v>0.1774257015207693</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C63" t="n">
-        <v>0.28736157172345067</v>
+        <v>0.38411899487235995</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C64" t="n">
-        <v>0.39684657712869487</v>
+        <v>0.11873293182053878</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2537529375659589</v>
+        <v>0.040693251648327516</v>
       </c>
       <c r="D65" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>0.16742524874469775</v>
+        <v>0.3346061619120481</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3967050818775878</v>
+        <v>0.36863693670963665</v>
       </c>
       <c r="D67" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
       <c r="C68" t="n">
-        <v>0.35877343467119677</v>
+        <v>0.06455224947313634</v>
       </c>
       <c r="D68" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
       </c>
       <c r="C69" t="n">
-        <v>0.39668451686278194</v>
+        <v>0.13519054569858951</v>
       </c>
       <c r="D69" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B70" t="s">
         <v>13</v>
       </c>
       <c r="C70" t="n">
-        <v>0.28653914070578496</v>
+        <v>0.2113470258200785</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
       </c>
       <c r="C71" t="n">
-        <v>0.36095154293527826</v>
+        <v>0.27453508677335164</v>
       </c>
       <c r="D71" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3615524718337509</v>
+        <v>0.15724331923415658</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3184121954154563</v>
+        <v>0.34589721649632255</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3525975037731959</v>
+        <v>0.3890834646005419</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C75" t="n">
-        <v>0.19375907253879454</v>
+        <v>0.3454603633789849</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C76" t="n">
-        <v>0.27049627195296605</v>
+        <v>0.34945654323093134</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s">
         <v>13</v>
       </c>
       <c r="C77" t="n">
-        <v>0.39553765448497286</v>
+        <v>0.2914582091056022</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C78" t="n">
-        <v>0.13056689350854753</v>
+        <v>0.22945988572964685</v>
       </c>
       <c r="D78" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
       </c>
       <c r="C79" t="n">
-        <v>0.28091707206024885</v>
+        <v>0.39426776748430564</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -1504,10 +1501,10 @@
         <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C80" t="n">
-        <v>0.12564794808364846</v>
+        <v>0.34669462184083916</v>
       </c>
       <c r="D80" t="s">
         <v>33</v>
@@ -1521,10 +1518,10 @@
         <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>0.36767022132026456</v>
+        <v>0.10125916813880143</v>
       </c>
       <c r="D81" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82">
@@ -1532,13 +1529,13 @@
         <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C82" t="n">
-        <v>0.07275606856784177</v>
+        <v>0.35970202561088105</v>
       </c>
       <c r="D82" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -1546,125 +1543,125 @@
         <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3471120590161693</v>
+        <v>0.13123104657659354</v>
       </c>
       <c r="D83" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
       </c>
       <c r="C84" t="n">
-        <v>0.38357108312535226</v>
+        <v>0.14382701601994624</v>
       </c>
       <c r="D84" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
       </c>
       <c r="C85" t="n">
-        <v>0.35079326890814816</v>
+        <v>0.23539656317089847</v>
       </c>
       <c r="D85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C86" t="n">
-        <v>0.22125799636941015</v>
+        <v>0.3672587714528086</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2976465951144725</v>
+        <v>0.3981319792073329</v>
       </c>
       <c r="D87" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3031272964861666</v>
+        <v>0.36240808878980574</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C89" t="n">
-        <v>0.30386848139994405</v>
+        <v>0.08136411470392636</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C90" t="n">
-        <v>0.3912337131463372</v>
+        <v>0.3170181002610976</v>
       </c>
       <c r="D90" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3300677323175768</v>
+        <v>0.39307849428316716</v>
       </c>
       <c r="D91" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
